--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_23_6.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_23_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3530742.926109171</v>
+        <v>-3531409.72222942</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4795783.348386016</v>
+        <v>4795783.348386015</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058541</v>
+        <v>632041.4518058548</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>69.6261376851901</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>22.58881163589401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>17.76019284593446</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>45.49679044823571</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>72.80927171816033</v>
+      </c>
+      <c r="X11" t="n">
         <v>82.66266089709399</v>
       </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
       <c r="Y11" t="n">
-        <v>82.66266089709399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1500,22 +1500,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>10.29207558827154</v>
+        <v>10.29207558827162</v>
       </c>
       <c r="U12" t="n">
-        <v>32.57485987793716</v>
+        <v>32.57485987793724</v>
       </c>
       <c r="V12" t="n">
-        <v>35.99613671235124</v>
+        <v>35.99613671235133</v>
       </c>
       <c r="W12" t="n">
-        <v>62.05179937396059</v>
+        <v>62.05179937396068</v>
       </c>
       <c r="X12" t="n">
-        <v>12.6601302364196</v>
+        <v>12.66013023641969</v>
       </c>
       <c r="Y12" t="n">
-        <v>18.73150193097462</v>
+        <v>18.7315019309747</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>30.6907843578795</v>
+        <v>30.69078435787959</v>
       </c>
       <c r="T13" t="n">
-        <v>19.08561116512932</v>
+        <v>19.08561116512941</v>
       </c>
       <c r="U13" t="n">
         <v>82.66266089709399</v>
       </c>
       <c r="V13" t="n">
-        <v>40.4562309813989</v>
+        <v>40.45623098139899</v>
       </c>
       <c r="W13" t="n">
         <v>82.66266089709399</v>
       </c>
       <c r="X13" t="n">
-        <v>17.26667120519153</v>
+        <v>17.26667120519161</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.48848861111742</v>
+        <v>12.4884886111175</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1610,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>14.3294019654482</v>
+      </c>
+      <c r="H14" t="n">
         <v>82.66266089709399</v>
       </c>
-      <c r="E14" t="n">
-        <v>33.73507956837221</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>35.89105811681798</v>
+        <v>35.89105811681807</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>22.58881163589401</v>
+        <v>22.58881163589409</v>
       </c>
       <c r="T14" t="n">
-        <v>17.76019284593446</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>45.49679044823571</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>82.66266089709399</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1737,22 +1737,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>10.29207558827154</v>
+        <v>10.29207558827162</v>
       </c>
       <c r="U15" t="n">
-        <v>32.57485987793716</v>
+        <v>32.57485987793724</v>
       </c>
       <c r="V15" t="n">
-        <v>35.99613671235124</v>
+        <v>35.99613671235133</v>
       </c>
       <c r="W15" t="n">
-        <v>62.05179937396059</v>
+        <v>62.05179937396068</v>
       </c>
       <c r="X15" t="n">
-        <v>12.6601302364196</v>
+        <v>12.66013023641969</v>
       </c>
       <c r="Y15" t="n">
-        <v>18.73150193097462</v>
+        <v>18.7315019309747</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>30.6907843578795</v>
+        <v>30.69078435787959</v>
       </c>
       <c r="T16" t="n">
-        <v>19.08561116512932</v>
+        <v>19.08561116512941</v>
       </c>
       <c r="U16" t="n">
         <v>82.66266089709399</v>
       </c>
       <c r="V16" t="n">
-        <v>40.4562309813989</v>
+        <v>40.45623098139899</v>
       </c>
       <c r="W16" t="n">
         <v>82.66266089709399</v>
       </c>
       <c r="X16" t="n">
-        <v>17.26667120519153</v>
+        <v>17.26667120519161</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.48848861111742</v>
+        <v>12.4884886111175</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>37.92381382931677</v>
+        <v>37.92381382931671</v>
       </c>
       <c r="C17" t="n">
-        <v>14.04207083266226</v>
+        <v>14.0420708326622</v>
       </c>
       <c r="D17" t="n">
-        <v>1.608733093710725</v>
+        <v>1.608733093710669</v>
       </c>
       <c r="E17" t="n">
-        <v>35.3154855131196</v>
+        <v>35.31548551311954</v>
       </c>
       <c r="F17" t="n">
-        <v>67.03582309149692</v>
+        <v>67.03582309149687</v>
       </c>
       <c r="G17" t="n">
         <v>82.66266089709399</v>
       </c>
       <c r="H17" t="n">
-        <v>10.73420125866872</v>
+        <v>10.73420125866866</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.733037277250332</v>
+        <v>1.733037277250276</v>
       </c>
       <c r="X17" t="n">
-        <v>23.61928774618957</v>
+        <v>23.61928774618951</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.12214086993333</v>
+        <v>46.12214086993328</v>
       </c>
     </row>
     <row r="18">
@@ -2084,7 +2084,7 @@
         <v>14.04207083266226</v>
       </c>
       <c r="D20" t="n">
-        <v>1.608733093710725</v>
+        <v>1.608733093710647</v>
       </c>
       <c r="E20" t="n">
         <v>35.3154855131196</v>
@@ -2330,7 +2330,7 @@
         <v>67.03582309149692</v>
       </c>
       <c r="G23" t="n">
-        <v>82.66266089709411</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="H23" t="n">
         <v>10.73420125866869</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.2417617096387</v>
+        <v>161.2417617096388</v>
       </c>
       <c r="C26" t="n">
         <v>137.3600187129842</v>
@@ -2561,19 +2561,19 @@
         <v>124.9266809740327</v>
       </c>
       <c r="E26" t="n">
-        <v>158.6334333934415</v>
+        <v>158.6334333934416</v>
       </c>
       <c r="F26" t="n">
         <v>190.3537709718189</v>
       </c>
       <c r="G26" t="n">
-        <v>205.9806087774159</v>
+        <v>205.980608777416</v>
       </c>
       <c r="H26" t="n">
-        <v>134.0521491389906</v>
+        <v>134.0521491389907</v>
       </c>
       <c r="I26" t="n">
-        <v>27.69836365167438</v>
+        <v>27.69836365167441</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.39611717075041</v>
+        <v>14.39611717075043</v>
       </c>
       <c r="T26" t="n">
-        <v>9.567498380790852</v>
+        <v>9.567498380790882</v>
       </c>
       <c r="U26" t="n">
-        <v>37.30409598309211</v>
+        <v>37.30409598309214</v>
       </c>
       <c r="V26" t="n">
         <v>108.0343049409574</v>
@@ -2618,7 +2618,7 @@
         <v>125.0509851575723</v>
       </c>
       <c r="X26" t="n">
-        <v>146.9372356265115</v>
+        <v>146.9372356265116</v>
       </c>
       <c r="Y26" t="n">
         <v>169.4400887502553</v>
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>125.6730735315877</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.044035583042497</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>214.9448597913225</v>
+        <v>2.099381123127963</v>
       </c>
       <c r="U27" t="n">
-        <v>24.38216541279355</v>
+        <v>95.24657779430073</v>
       </c>
       <c r="V27" t="n">
-        <v>27.80344224720764</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>53.85910490881699</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>4.467435771276001</v>
+        <v>4.46743577127603</v>
       </c>
       <c r="Y27" t="n">
-        <v>162.5315894009001</v>
+        <v>10.53880746583104</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.4980898927359</v>
+        <v>22.49808989273593</v>
       </c>
       <c r="T28" t="n">
-        <v>10.89291669998572</v>
+        <v>10.89291669998575</v>
       </c>
       <c r="U28" t="n">
-        <v>75.81078260145003</v>
+        <v>75.81078260145006</v>
       </c>
       <c r="V28" t="n">
-        <v>32.2635365162553</v>
+        <v>32.26353651625533</v>
       </c>
       <c r="W28" t="n">
-        <v>77.46522842114072</v>
+        <v>77.46522842114075</v>
       </c>
       <c r="X28" t="n">
-        <v>9.073976740047925</v>
+        <v>9.073976740047954</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.295794145973815</v>
+        <v>4.295794145973844</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>161.2417617096387</v>
+        <v>161.2417617096388</v>
       </c>
       <c r="C29" t="n">
-        <v>137.3600187129842</v>
+        <v>137.3600187129843</v>
       </c>
       <c r="D29" t="n">
         <v>124.9266809740327</v>
       </c>
       <c r="E29" t="n">
-        <v>158.6334333934415</v>
+        <v>158.6334333934416</v>
       </c>
       <c r="F29" t="n">
         <v>190.3537709718189</v>
       </c>
       <c r="G29" t="n">
-        <v>205.9806087774159</v>
+        <v>205.980608777416</v>
       </c>
       <c r="H29" t="n">
-        <v>134.0521491389906</v>
+        <v>134.0521491389907</v>
       </c>
       <c r="I29" t="n">
-        <v>27.69836365167438</v>
+        <v>27.69836365167444</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.39611717075041</v>
+        <v>14.39611717075046</v>
       </c>
       <c r="T29" t="n">
-        <v>9.567498380790852</v>
+        <v>9.56749838079091</v>
       </c>
       <c r="U29" t="n">
-        <v>37.30409598309211</v>
+        <v>37.30409598309217</v>
       </c>
       <c r="V29" t="n">
-        <v>108.0343049409574</v>
+        <v>108.0343049409575</v>
       </c>
       <c r="W29" t="n">
         <v>125.0509851575723</v>
       </c>
       <c r="X29" t="n">
-        <v>146.9372356265115</v>
+        <v>146.9372356265116</v>
       </c>
       <c r="Y29" t="n">
         <v>169.4400887502553</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>51.86424478979235</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2913,31 +2913,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.044035583042497</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.4706822307765</v>
       </c>
       <c r="T30" t="n">
-        <v>15.05551313179794</v>
+        <v>214.9448597913225</v>
       </c>
       <c r="U30" t="n">
-        <v>24.38216541279355</v>
+        <v>24.38216541279361</v>
       </c>
       <c r="V30" t="n">
-        <v>27.80344224720764</v>
+        <v>27.8034422472077</v>
       </c>
       <c r="W30" t="n">
-        <v>53.85910490881699</v>
+        <v>53.85910490881705</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>4.467435771276058</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>102.7780162847628</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.4980898927359</v>
+        <v>22.49808989273595</v>
       </c>
       <c r="T31" t="n">
-        <v>10.89291669998572</v>
+        <v>10.89291669998578</v>
       </c>
       <c r="U31" t="n">
-        <v>75.81078260145003</v>
+        <v>75.81078260145009</v>
       </c>
       <c r="V31" t="n">
-        <v>32.2635365162553</v>
+        <v>32.26353651625536</v>
       </c>
       <c r="W31" t="n">
-        <v>77.46522842114072</v>
+        <v>77.46522842114078</v>
       </c>
       <c r="X31" t="n">
-        <v>9.073976740047925</v>
+        <v>9.073976740047982</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.295794145973815</v>
+        <v>4.295794145973872</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>161.2417617096388</v>
       </c>
       <c r="C32" t="n">
-        <v>137.3600187129843</v>
+        <v>137.3600187129842</v>
       </c>
       <c r="D32" t="n">
         <v>124.9266809740327</v>
@@ -3047,7 +3047,7 @@
         <v>134.0521491389907</v>
       </c>
       <c r="I32" t="n">
-        <v>27.69836365167443</v>
+        <v>27.69836365167441</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.39611717075046</v>
+        <v>14.39611717075044</v>
       </c>
       <c r="T32" t="n">
-        <v>9.56749838079091</v>
+        <v>9.56749838079088</v>
       </c>
       <c r="U32" t="n">
-        <v>37.30409598309217</v>
+        <v>37.30409598309214</v>
       </c>
       <c r="V32" t="n">
-        <v>108.0343049409575</v>
+        <v>108.0343049409574</v>
       </c>
       <c r="W32" t="n">
         <v>125.0509851575723</v>
@@ -3105,16 +3105,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>105.8382836268618</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.044035583042497</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.099381123127992</v>
+        <v>2.099381123127963</v>
       </c>
       <c r="U33" t="n">
-        <v>24.38216541279361</v>
+        <v>24.38216541279358</v>
       </c>
       <c r="V33" t="n">
-        <v>27.8034422472077</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>53.85910490881705</v>
+        <v>150.0508444341532</v>
       </c>
       <c r="X33" t="n">
-        <v>4.467435771276058</v>
+        <v>4.46743577127603</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>10.53880746583104</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.49808989273595</v>
+        <v>22.49808989273593</v>
       </c>
       <c r="T34" t="n">
-        <v>10.89291669998578</v>
+        <v>10.89291669998575</v>
       </c>
       <c r="U34" t="n">
-        <v>75.81078260145009</v>
+        <v>75.81078260145006</v>
       </c>
       <c r="V34" t="n">
-        <v>32.26353651625536</v>
+        <v>32.26353651625533</v>
       </c>
       <c r="W34" t="n">
-        <v>77.46522842114078</v>
+        <v>77.46522842114075</v>
       </c>
       <c r="X34" t="n">
-        <v>9.073976740047982</v>
+        <v>9.073976740047954</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.295794145973872</v>
+        <v>4.295794145973844</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>138.4084048744157</v>
+        <v>138.4084048744156</v>
       </c>
       <c r="C35" t="n">
         <v>114.5266618777611</v>
       </c>
       <c r="D35" t="n">
-        <v>102.0933241388096</v>
+        <v>102.0933241388095</v>
       </c>
       <c r="E35" t="n">
-        <v>135.8000765582185</v>
+        <v>135.8000765582184</v>
       </c>
       <c r="F35" t="n">
-        <v>167.5204141365958</v>
+        <v>167.5204141365957</v>
       </c>
       <c r="G35" t="n">
-        <v>183.1472519421929</v>
+        <v>183.1472519421928</v>
       </c>
       <c r="H35" t="n">
-        <v>111.2187923037676</v>
+        <v>111.2187923037675</v>
       </c>
       <c r="I35" t="n">
-        <v>4.865006816451313</v>
+        <v>4.865006816451256</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,16 +3320,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>14.47073914786904</v>
+        <v>14.47073914786898</v>
       </c>
       <c r="V35" t="n">
-        <v>85.20094810573434</v>
+        <v>85.20094810573428</v>
       </c>
       <c r="W35" t="n">
         <v>102.2176283223492</v>
       </c>
       <c r="X35" t="n">
-        <v>124.1038787912885</v>
+        <v>124.1038787912884</v>
       </c>
       <c r="Y35" t="n">
         <v>146.6067319150322</v>
@@ -3399,13 +3399,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>1.548808577570483</v>
+        <v>1.548808577570426</v>
       </c>
       <c r="V36" t="n">
-        <v>4.97008541198457</v>
+        <v>4.970085411984513</v>
       </c>
       <c r="W36" t="n">
-        <v>31.02574807359392</v>
+        <v>31.02574807359386</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>52.97742576622696</v>
+        <v>52.9774257662269</v>
       </c>
       <c r="V37" t="n">
-        <v>9.430179681032229</v>
+        <v>9.430179681032172</v>
       </c>
       <c r="W37" t="n">
-        <v>54.63187158591765</v>
+        <v>54.63187158591759</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3743,13 +3743,13 @@
         <v>114.5266618777611</v>
       </c>
       <c r="D41" t="n">
-        <v>102.0933241388096</v>
+        <v>102.0933241388095</v>
       </c>
       <c r="E41" t="n">
         <v>135.8000765582184</v>
       </c>
       <c r="F41" t="n">
-        <v>167.5204141365958</v>
+        <v>167.5204141365957</v>
       </c>
       <c r="G41" t="n">
         <v>183.1472519421928</v>
@@ -3758,7 +3758,7 @@
         <v>111.2187923037675</v>
       </c>
       <c r="I41" t="n">
-        <v>4.865006816451285</v>
+        <v>4.865006816451256</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,10 +3794,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>14.47073914786901</v>
+        <v>14.47073914786898</v>
       </c>
       <c r="V41" t="n">
-        <v>85.20094810573431</v>
+        <v>85.20094810573428</v>
       </c>
       <c r="W41" t="n">
         <v>102.2176283223492</v>
@@ -3873,13 +3873,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>1.548808577570454</v>
+        <v>1.548808577570426</v>
       </c>
       <c r="V42" t="n">
-        <v>4.970085411984542</v>
+        <v>4.970085411984513</v>
       </c>
       <c r="W42" t="n">
-        <v>31.02574807359389</v>
+        <v>31.02574807359386</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>52.97742576622693</v>
+        <v>52.9774257662269</v>
       </c>
       <c r="V43" t="n">
-        <v>9.4301796810322</v>
+        <v>9.430179681032172</v>
       </c>
       <c r="W43" t="n">
-        <v>54.63187158591762</v>
+        <v>54.63187158591759</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>138.4084048744157</v>
+        <v>138.4084048744156</v>
       </c>
       <c r="C44" t="n">
         <v>114.5266618777611</v>
       </c>
       <c r="D44" t="n">
-        <v>102.0933241388096</v>
+        <v>102.0933241388095</v>
       </c>
       <c r="E44" t="n">
-        <v>135.8000765582185</v>
+        <v>135.8000765582184</v>
       </c>
       <c r="F44" t="n">
-        <v>167.5204141365958</v>
+        <v>167.5204141365957</v>
       </c>
       <c r="G44" t="n">
-        <v>183.1472519421929</v>
+        <v>183.1472519421928</v>
       </c>
       <c r="H44" t="n">
-        <v>111.2187923037676</v>
+        <v>111.2187923037675</v>
       </c>
       <c r="I44" t="n">
-        <v>4.865006816451313</v>
+        <v>4.865006816451256</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,16 +4031,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>14.47073914786903</v>
+        <v>14.47073914786898</v>
       </c>
       <c r="V44" t="n">
-        <v>85.20094810573434</v>
+        <v>85.20094810573428</v>
       </c>
       <c r="W44" t="n">
         <v>102.2176283223492</v>
       </c>
       <c r="X44" t="n">
-        <v>124.1038787912885</v>
+        <v>124.1038787912884</v>
       </c>
       <c r="Y44" t="n">
         <v>146.6067319150322</v>
@@ -4110,13 +4110,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>1.548808577570483</v>
+        <v>1.548808577570426</v>
       </c>
       <c r="V45" t="n">
-        <v>4.97008541198457</v>
+        <v>4.970085411984513</v>
       </c>
       <c r="W45" t="n">
-        <v>31.02574807359392</v>
+        <v>31.02574807359386</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>52.97742576622696</v>
+        <v>52.9774257662269</v>
       </c>
       <c r="V46" t="n">
-        <v>9.430179681032229</v>
+        <v>9.430179681032172</v>
       </c>
       <c r="W46" t="n">
-        <v>54.63187158591765</v>
+        <v>54.63187158591759</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>76.94244487701006</v>
+        <v>90.11065014155943</v>
       </c>
       <c r="C11" t="n">
-        <v>76.94244487701006</v>
+        <v>90.11065014155943</v>
       </c>
       <c r="D11" t="n">
-        <v>76.94244487701006</v>
+        <v>90.11065014155943</v>
       </c>
       <c r="E11" t="n">
-        <v>76.94244487701006</v>
+        <v>90.11065014155943</v>
       </c>
       <c r="F11" t="n">
-        <v>76.94244487701006</v>
+        <v>90.11065014155943</v>
       </c>
       <c r="G11" t="n">
-        <v>6.613012871767519</v>
+        <v>90.11065014155943</v>
       </c>
       <c r="H11" t="n">
         <v>6.613012871767519</v>
@@ -5039,52 +5039,52 @@
         <v>6.613012871767519</v>
       </c>
       <c r="J11" t="n">
-        <v>53.27925173283145</v>
+        <v>26.10848324205551</v>
       </c>
       <c r="K11" t="n">
-        <v>53.27925173283145</v>
+        <v>107.9445175301786</v>
       </c>
       <c r="L11" t="n">
-        <v>135.1152860209545</v>
+        <v>156.5534733886114</v>
       </c>
       <c r="M11" t="n">
-        <v>216.9513203090775</v>
+        <v>156.5534733886114</v>
       </c>
       <c r="N11" t="n">
-        <v>294.414097973462</v>
+        <v>238.3895076767344</v>
       </c>
       <c r="O11" t="n">
-        <v>330.6506435883759</v>
+        <v>238.3895076767344</v>
       </c>
       <c r="P11" t="n">
-        <v>330.6506435883759</v>
+        <v>320.2255419648575</v>
       </c>
       <c r="Q11" t="n">
-        <v>330.6506435883759</v>
+        <v>320.2255419648575</v>
       </c>
       <c r="R11" t="n">
         <v>330.6506435883759</v>
       </c>
       <c r="S11" t="n">
-        <v>307.833662137978</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="T11" t="n">
-        <v>289.8940734047109</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="U11" t="n">
-        <v>243.9377194165938</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="V11" t="n">
-        <v>160.440082146802</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="W11" t="n">
-        <v>160.440082146802</v>
+        <v>257.1059246811433</v>
       </c>
       <c r="X11" t="n">
-        <v>160.440082146802</v>
+        <v>173.6082874113513</v>
       </c>
       <c r="Y11" t="n">
-        <v>76.94244487701006</v>
+        <v>173.6082874113513</v>
       </c>
     </row>
     <row r="12">
@@ -5097,70 +5097,70 @@
         <v>6.613012871767519</v>
       </c>
       <c r="C12" t="n">
-        <v>6.613012871767519</v>
+        <v>20.6340384733557</v>
       </c>
       <c r="D12" t="n">
-        <v>51.63867730697525</v>
+        <v>20.6340384733557</v>
       </c>
       <c r="E12" t="n">
-        <v>51.63867730697525</v>
+        <v>20.6340384733557</v>
       </c>
       <c r="F12" t="n">
-        <v>97.00972893926668</v>
+        <v>20.6340384733557</v>
       </c>
       <c r="G12" t="n">
-        <v>152.3652285288766</v>
+        <v>20.6340384733557</v>
       </c>
       <c r="H12" t="n">
-        <v>152.3652285288766</v>
+        <v>98.82395203810432</v>
       </c>
       <c r="I12" t="n">
-        <v>152.3652285288766</v>
+        <v>180.6599863262274</v>
       </c>
       <c r="J12" t="n">
-        <v>152.3652285288766</v>
+        <v>180.6599863262274</v>
       </c>
       <c r="K12" t="n">
-        <v>152.3652285288766</v>
+        <v>180.6599863262274</v>
       </c>
       <c r="L12" t="n">
-        <v>152.3652285288766</v>
+        <v>180.6599863262274</v>
       </c>
       <c r="M12" t="n">
-        <v>152.3652285288766</v>
+        <v>180.6599863262274</v>
       </c>
       <c r="N12" t="n">
-        <v>152.3652285288766</v>
+        <v>180.6599863262274</v>
       </c>
       <c r="O12" t="n">
-        <v>152.3652285288766</v>
+        <v>180.6599863262274</v>
       </c>
       <c r="P12" t="n">
-        <v>152.3652285288766</v>
+        <v>180.6599863262274</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.3652285288766</v>
+        <v>180.6599863262274</v>
       </c>
       <c r="R12" t="n">
-        <v>180.6599863262269</v>
+        <v>180.6599863262274</v>
       </c>
       <c r="S12" t="n">
-        <v>180.6599863262269</v>
+        <v>180.6599863262274</v>
       </c>
       <c r="T12" t="n">
-        <v>170.2639503784778</v>
+        <v>170.2639503784783</v>
       </c>
       <c r="U12" t="n">
-        <v>137.3600515118746</v>
+        <v>137.360051511875</v>
       </c>
       <c r="V12" t="n">
-        <v>101.0003174589946</v>
+        <v>101.0003174589949</v>
       </c>
       <c r="W12" t="n">
-        <v>38.32173223277179</v>
+        <v>38.32173223277196</v>
       </c>
       <c r="X12" t="n">
-        <v>25.533721892954</v>
+        <v>25.53372189295409</v>
       </c>
       <c r="Y12" t="n">
         <v>6.613012871767519</v>
@@ -5185,61 +5185,61 @@
         <v>6.613012871767519</v>
       </c>
       <c r="F13" t="n">
-        <v>71.68165583652583</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="G13" t="n">
-        <v>107.279511955081</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="H13" t="n">
-        <v>107.279511955081</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="I13" t="n">
-        <v>107.279511955081</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="J13" t="n">
-        <v>107.279511955081</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="K13" t="n">
-        <v>107.279511955081</v>
+        <v>170.2850814480136</v>
       </c>
       <c r="L13" t="n">
-        <v>189.1155462432041</v>
+        <v>170.2850814480136</v>
       </c>
       <c r="M13" t="n">
-        <v>189.1155462432041</v>
+        <v>170.2850814480136</v>
       </c>
       <c r="N13" t="n">
-        <v>189.1155462432041</v>
+        <v>212.9720372855689</v>
       </c>
       <c r="O13" t="n">
-        <v>250.7818095652206</v>
+        <v>294.8080715736919</v>
       </c>
       <c r="P13" t="n">
-        <v>250.7818095652206</v>
+        <v>294.8080715736919</v>
       </c>
       <c r="Q13" t="n">
-        <v>293.3561598243339</v>
+        <v>294.8080715736919</v>
       </c>
       <c r="R13" t="n">
-        <v>294.8080715736914</v>
+        <v>294.8080715736919</v>
       </c>
       <c r="S13" t="n">
-        <v>263.8072792930051</v>
+        <v>263.8072792930054</v>
       </c>
       <c r="T13" t="n">
-        <v>244.5288841767128</v>
+        <v>244.5288841767131</v>
       </c>
       <c r="U13" t="n">
-        <v>161.0312469069209</v>
+        <v>161.0312469069212</v>
       </c>
       <c r="V13" t="n">
-        <v>120.1663671277301</v>
+        <v>120.1663671277303</v>
       </c>
       <c r="W13" t="n">
-        <v>36.66872985793817</v>
+        <v>36.66872985793835</v>
       </c>
       <c r="X13" t="n">
-        <v>19.22764783249218</v>
+        <v>19.22764783249227</v>
       </c>
       <c r="Y13" t="n">
         <v>6.613012871767519</v>
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>160.4400821468021</v>
+        <v>140.838387598394</v>
       </c>
       <c r="C14" t="n">
-        <v>160.4400821468021</v>
+        <v>140.838387598394</v>
       </c>
       <c r="D14" t="n">
-        <v>76.94244487701016</v>
+        <v>140.838387598394</v>
       </c>
       <c r="E14" t="n">
-        <v>42.86660692915945</v>
+        <v>140.838387598394</v>
       </c>
       <c r="F14" t="n">
-        <v>42.86660692915945</v>
+        <v>140.838387598394</v>
       </c>
       <c r="G14" t="n">
-        <v>42.86660692915945</v>
+        <v>126.3642441989514</v>
       </c>
       <c r="H14" t="n">
-        <v>42.86660692915945</v>
+        <v>42.8666069291595</v>
       </c>
       <c r="I14" t="n">
         <v>6.613012871767519</v>
       </c>
       <c r="J14" t="n">
-        <v>6.613012871767519</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="K14" t="n">
         <v>88.44904715989057</v>
       </c>
       <c r="L14" t="n">
-        <v>137.0580030183234</v>
+        <v>170.2850814480136</v>
       </c>
       <c r="M14" t="n">
-        <v>218.8940373064464</v>
+        <v>252.1211157361367</v>
       </c>
       <c r="N14" t="n">
-        <v>218.8940373064464</v>
+        <v>252.1211157361367</v>
       </c>
       <c r="O14" t="n">
-        <v>300.7300715945695</v>
+        <v>252.1211157361367</v>
       </c>
       <c r="P14" t="n">
-        <v>300.7300715945695</v>
+        <v>252.1211157361367</v>
       </c>
       <c r="Q14" t="n">
         <v>330.6506435883759</v>
@@ -5303,25 +5303,25 @@
         <v>330.6506435883759</v>
       </c>
       <c r="S14" t="n">
-        <v>307.833662137978</v>
+        <v>307.8336621379779</v>
       </c>
       <c r="T14" t="n">
-        <v>289.8940734047108</v>
+        <v>307.8336621379779</v>
       </c>
       <c r="U14" t="n">
-        <v>243.937719416594</v>
+        <v>307.8336621379779</v>
       </c>
       <c r="V14" t="n">
-        <v>160.4400821468021</v>
+        <v>224.3360248681859</v>
       </c>
       <c r="W14" t="n">
-        <v>160.4400821468021</v>
+        <v>140.838387598394</v>
       </c>
       <c r="X14" t="n">
-        <v>160.4400821468021</v>
+        <v>140.838387598394</v>
       </c>
       <c r="Y14" t="n">
-        <v>160.4400821468021</v>
+        <v>140.838387598394</v>
       </c>
     </row>
     <row r="15">
@@ -5334,70 +5334,70 @@
         <v>6.613012871767519</v>
       </c>
       <c r="C15" t="n">
-        <v>6.613012871767519</v>
+        <v>23.57629922366566</v>
       </c>
       <c r="D15" t="n">
-        <v>51.63867730697525</v>
+        <v>68.6019636588733</v>
       </c>
       <c r="E15" t="n">
-        <v>84.13563754659405</v>
+        <v>68.6019636588733</v>
       </c>
       <c r="F15" t="n">
-        <v>129.5066891788855</v>
+        <v>102.4700727614787</v>
       </c>
       <c r="G15" t="n">
-        <v>129.5066891788855</v>
+        <v>102.4700727614787</v>
       </c>
       <c r="H15" t="n">
-        <v>129.5066891788855</v>
+        <v>180.6599863262274</v>
       </c>
       <c r="I15" t="n">
-        <v>129.5066891788855</v>
+        <v>180.6599863262274</v>
       </c>
       <c r="J15" t="n">
-        <v>180.6599863262269</v>
+        <v>180.6599863262274</v>
       </c>
       <c r="K15" t="n">
-        <v>180.6599863262269</v>
+        <v>180.6599863262274</v>
       </c>
       <c r="L15" t="n">
-        <v>180.6599863262269</v>
+        <v>180.6599863262274</v>
       </c>
       <c r="M15" t="n">
-        <v>180.6599863262269</v>
+        <v>180.6599863262274</v>
       </c>
       <c r="N15" t="n">
-        <v>180.6599863262269</v>
+        <v>180.6599863262274</v>
       </c>
       <c r="O15" t="n">
-        <v>180.6599863262269</v>
+        <v>180.6599863262274</v>
       </c>
       <c r="P15" t="n">
-        <v>180.6599863262269</v>
+        <v>180.6599863262274</v>
       </c>
       <c r="Q15" t="n">
-        <v>180.6599863262269</v>
+        <v>180.6599863262274</v>
       </c>
       <c r="R15" t="n">
-        <v>180.6599863262269</v>
+        <v>180.6599863262274</v>
       </c>
       <c r="S15" t="n">
-        <v>180.6599863262269</v>
+        <v>180.6599863262274</v>
       </c>
       <c r="T15" t="n">
-        <v>170.2639503784778</v>
+        <v>170.2639503784783</v>
       </c>
       <c r="U15" t="n">
-        <v>137.3600515118746</v>
+        <v>137.360051511875</v>
       </c>
       <c r="V15" t="n">
-        <v>101.0003174589946</v>
+        <v>101.0003174589949</v>
       </c>
       <c r="W15" t="n">
-        <v>38.32173223277179</v>
+        <v>38.32173223277196</v>
       </c>
       <c r="X15" t="n">
-        <v>25.533721892954</v>
+        <v>25.53372189295409</v>
       </c>
       <c r="Y15" t="n">
         <v>6.613012871767519</v>
@@ -5410,73 +5410,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.37851777446959</v>
+        <v>33.37851777446951</v>
       </c>
       <c r="C16" t="n">
-        <v>33.37851777446959</v>
+        <v>71.19216497323728</v>
       </c>
       <c r="D16" t="n">
-        <v>92.25395038728648</v>
+        <v>130.0675975860541</v>
       </c>
       <c r="E16" t="n">
-        <v>154.6008269482042</v>
+        <v>192.4144741469718</v>
       </c>
       <c r="F16" t="n">
-        <v>219.6694699129625</v>
+        <v>257.48311711173</v>
       </c>
       <c r="G16" t="n">
-        <v>219.6694699129625</v>
+        <v>257.48311711173</v>
       </c>
       <c r="H16" t="n">
-        <v>219.6694699129625</v>
+        <v>257.48311711173</v>
       </c>
       <c r="I16" t="n">
-        <v>219.6694699129625</v>
+        <v>294.8080715736919</v>
       </c>
       <c r="J16" t="n">
-        <v>219.6694699129625</v>
+        <v>294.8080715736919</v>
       </c>
       <c r="K16" t="n">
-        <v>293.3561598243339</v>
+        <v>294.8080715736919</v>
       </c>
       <c r="L16" t="n">
-        <v>293.3561598243339</v>
+        <v>294.8080715736919</v>
       </c>
       <c r="M16" t="n">
-        <v>293.3561598243339</v>
+        <v>294.8080715736919</v>
       </c>
       <c r="N16" t="n">
-        <v>293.3561598243339</v>
+        <v>294.8080715736919</v>
       </c>
       <c r="O16" t="n">
-        <v>293.3561598243339</v>
+        <v>294.8080715736919</v>
       </c>
       <c r="P16" t="n">
-        <v>293.3561598243339</v>
+        <v>294.8080715736919</v>
       </c>
       <c r="Q16" t="n">
-        <v>293.3561598243339</v>
+        <v>294.8080715736919</v>
       </c>
       <c r="R16" t="n">
-        <v>294.8080715736914</v>
+        <v>294.8080715736919</v>
       </c>
       <c r="S16" t="n">
-        <v>263.8072792930051</v>
+        <v>263.8072792930054</v>
       </c>
       <c r="T16" t="n">
-        <v>244.5288841767128</v>
+        <v>244.5288841767131</v>
       </c>
       <c r="U16" t="n">
-        <v>161.0312469069209</v>
+        <v>161.0312469069212</v>
       </c>
       <c r="V16" t="n">
-        <v>120.1663671277301</v>
+        <v>120.1663671277303</v>
       </c>
       <c r="W16" t="n">
-        <v>36.66872985793817</v>
+        <v>36.66872985793835</v>
       </c>
       <c r="X16" t="n">
-        <v>19.22764783249218</v>
+        <v>19.22764783249227</v>
       </c>
       <c r="Y16" t="n">
         <v>6.613012871767519</v>
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>220.1473307371739</v>
+        <v>220.1473307371741</v>
       </c>
       <c r="C17" t="n">
-        <v>205.9634208051918</v>
+        <v>205.9634208051921</v>
       </c>
       <c r="D17" t="n">
-        <v>204.3384378822516</v>
+        <v>204.3384378822519</v>
       </c>
       <c r="E17" t="n">
-        <v>168.6662302932419</v>
+        <v>168.6662302932423</v>
       </c>
       <c r="F17" t="n">
-        <v>100.9532776755682</v>
+        <v>100.9532776755686</v>
       </c>
       <c r="G17" t="n">
-        <v>17.45564040577633</v>
+        <v>17.45564040577627</v>
       </c>
       <c r="H17" t="n">
         <v>6.613012871767519</v>
@@ -5519,31 +5519,31 @@
         <v>6.613012871767519</v>
       </c>
       <c r="L17" t="n">
-        <v>6.613012871767519</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="M17" t="n">
-        <v>6.613012871767519</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="N17" t="n">
-        <v>6.613012871767519</v>
+        <v>151.8477685021589</v>
       </c>
       <c r="O17" t="n">
-        <v>70.0117342140359</v>
+        <v>151.8477685021589</v>
       </c>
       <c r="P17" t="n">
-        <v>70.0117342140359</v>
+        <v>151.8477685021589</v>
       </c>
       <c r="Q17" t="n">
-        <v>70.0117342140359</v>
+        <v>233.6838027902819</v>
       </c>
       <c r="R17" t="n">
-        <v>70.0117342140359</v>
+        <v>233.6838027902819</v>
       </c>
       <c r="S17" t="n">
-        <v>151.8477685021589</v>
+        <v>233.6838027902819</v>
       </c>
       <c r="T17" t="n">
-        <v>233.683802790282</v>
+        <v>315.519837078405</v>
       </c>
       <c r="U17" t="n">
         <v>315.519837078405</v>
@@ -5555,10 +5555,10 @@
         <v>328.9001008840827</v>
       </c>
       <c r="X17" t="n">
-        <v>305.0422344737902</v>
+        <v>305.0422344737903</v>
       </c>
       <c r="Y17" t="n">
-        <v>258.4542133930494</v>
+        <v>258.4542133930496</v>
       </c>
     </row>
     <row r="18">
@@ -5732,13 +5732,13 @@
         <v>205.9634208051918</v>
       </c>
       <c r="D20" t="n">
-        <v>204.3384378822516</v>
+        <v>204.3384378822518</v>
       </c>
       <c r="E20" t="n">
-        <v>168.6662302932419</v>
+        <v>168.6662302932421</v>
       </c>
       <c r="F20" t="n">
-        <v>100.9532776755682</v>
+        <v>100.9532776755684</v>
       </c>
       <c r="G20" t="n">
         <v>17.4556404057763</v>
@@ -5747,34 +5747,34 @@
         <v>6.613012871767519</v>
       </c>
       <c r="I20" t="n">
-        <v>6.613012871767519</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="J20" t="n">
-        <v>6.613012871767519</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="K20" t="n">
-        <v>6.613012871767519</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="L20" t="n">
-        <v>6.613012871767519</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="M20" t="n">
-        <v>6.613012871767519</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="N20" t="n">
-        <v>6.613012871767519</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="O20" t="n">
-        <v>6.613012871767519</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="P20" t="n">
-        <v>6.613012871767519</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="Q20" t="n">
-        <v>70.0117342140359</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="R20" t="n">
-        <v>70.0117342140359</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="S20" t="n">
         <v>151.8477685021589</v>
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>220.1473307371745</v>
+        <v>220.1473307371739</v>
       </c>
       <c r="C23" t="n">
-        <v>205.9634208051924</v>
+        <v>205.9634208051918</v>
       </c>
       <c r="D23" t="n">
-        <v>204.3384378822523</v>
+        <v>204.3384378822516</v>
       </c>
       <c r="E23" t="n">
-        <v>168.6662302932426</v>
+        <v>168.6662302932419</v>
       </c>
       <c r="F23" t="n">
-        <v>100.9532776755689</v>
+        <v>100.9532776755682</v>
       </c>
       <c r="G23" t="n">
-        <v>17.45564040577631</v>
+        <v>17.4556404057763</v>
       </c>
       <c r="H23" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="I23" t="n">
-        <v>88.4490471598907</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="J23" t="n">
-        <v>88.4490471598907</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="K23" t="n">
-        <v>88.4490471598907</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="L23" t="n">
-        <v>88.4490471598907</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="M23" t="n">
-        <v>88.4490471598907</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="N23" t="n">
-        <v>88.4490471598907</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="O23" t="n">
-        <v>88.4490471598907</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="P23" t="n">
-        <v>88.4490471598907</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.4490471598907</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="R23" t="n">
-        <v>170.2850814480139</v>
+        <v>170.2850814480136</v>
       </c>
       <c r="S23" t="n">
-        <v>170.2850814480139</v>
+        <v>233.683802790282</v>
       </c>
       <c r="T23" t="n">
-        <v>233.6838027902824</v>
+        <v>315.519837078405</v>
       </c>
       <c r="U23" t="n">
-        <v>315.5198370784055</v>
+        <v>315.519837078405</v>
       </c>
       <c r="V23" t="n">
-        <v>330.6506435883765</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="W23" t="n">
-        <v>328.9001008840833</v>
+        <v>328.9001008840827</v>
       </c>
       <c r="X23" t="n">
-        <v>305.0422344737909</v>
+        <v>305.0422344737902</v>
       </c>
       <c r="Y23" t="n">
-        <v>258.4542133930501</v>
+        <v>258.4542133930494</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="C24" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="D24" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="E24" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="F24" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="G24" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="H24" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="I24" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="J24" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="K24" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="L24" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="M24" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="N24" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="O24" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="P24" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="R24" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="S24" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="T24" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="U24" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="V24" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="W24" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="X24" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="Y24" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="C25" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="D25" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="E25" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="F25" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="G25" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="H25" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="I25" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="J25" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="K25" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="L25" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="M25" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="N25" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="O25" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="P25" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="R25" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="S25" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="T25" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="U25" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="V25" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="W25" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="X25" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.61301287176753</v>
+        <v>6.613012871767519</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1024.989143861832</v>
+        <v>1024.989143861833</v>
       </c>
       <c r="C26" t="n">
-        <v>886.2416502123533</v>
+        <v>886.2416502123535</v>
       </c>
       <c r="D26" t="n">
-        <v>760.0530835719162</v>
+        <v>760.0530835719164</v>
       </c>
       <c r="E26" t="n">
-        <v>599.8172922654096</v>
+        <v>599.8172922654097</v>
       </c>
       <c r="F26" t="n">
-        <v>407.540755930239</v>
+        <v>407.5407559302391</v>
       </c>
       <c r="G26" t="n">
         <v>199.4795349429503</v>
       </c>
       <c r="H26" t="n">
-        <v>64.07332369144449</v>
+        <v>64.07332369144453</v>
       </c>
       <c r="I26" t="n">
-        <v>36.09517858874308</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="J26" t="n">
         <v>171.8138854154936</v>
       </c>
       <c r="K26" t="n">
-        <v>377.3929389292101</v>
+        <v>377.3929389292102</v>
       </c>
       <c r="L26" t="n">
-        <v>636.7189186691555</v>
+        <v>636.7189186691556</v>
       </c>
       <c r="M26" t="n">
-        <v>930.3987315707762</v>
+        <v>930.3987315707761</v>
       </c>
       <c r="N26" t="n">
         <v>1218.578533116673</v>
@@ -6245,25 +6245,25 @@
         <v>1663.028607199424</v>
       </c>
       <c r="Q26" t="n">
-        <v>1786.223060293143</v>
+        <v>1786.223060293145</v>
       </c>
       <c r="R26" t="n">
-        <v>1804.758929437154</v>
+        <v>1804.758929437156</v>
       </c>
       <c r="S26" t="n">
-        <v>1790.217396941446</v>
+        <v>1790.217396941448</v>
       </c>
       <c r="T26" t="n">
-        <v>1780.55325716287</v>
+        <v>1780.553257162871</v>
       </c>
       <c r="U26" t="n">
-        <v>1742.872352129444</v>
+        <v>1742.872352129445</v>
       </c>
       <c r="V26" t="n">
-        <v>1633.746791583022</v>
+        <v>1633.746791583023</v>
       </c>
       <c r="W26" t="n">
-        <v>1507.432665161232</v>
+        <v>1507.432665161233</v>
       </c>
       <c r="X26" t="n">
         <v>1359.011215033443</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>163.0376771054983</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="C27" t="n">
-        <v>163.0376771054983</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="D27" t="n">
-        <v>163.0376771054983</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="E27" t="n">
-        <v>163.0376771054983</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="F27" t="n">
-        <v>163.0376771054983</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="G27" t="n">
-        <v>163.0376771054983</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="H27" t="n">
-        <v>36.09517858874308</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="I27" t="n">
-        <v>36.09517858874308</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="J27" t="n">
-        <v>36.09517858874308</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="K27" t="n">
-        <v>75.09223206028351</v>
+        <v>75.09223206028354</v>
       </c>
       <c r="L27" t="n">
         <v>193.8151253226841</v>
       </c>
       <c r="M27" t="n">
-        <v>377.1138061802539</v>
+        <v>237.4189914840496</v>
       </c>
       <c r="N27" t="n">
-        <v>583.6837472647558</v>
+        <v>443.9889325685515</v>
       </c>
       <c r="O27" t="n">
-        <v>662.0605388381845</v>
+        <v>577.2129895868088</v>
       </c>
       <c r="P27" t="n">
-        <v>662.0605388381845</v>
+        <v>662.0605388381871</v>
       </c>
       <c r="Q27" t="n">
-        <v>655.9554523906668</v>
+        <v>662.0605388381871</v>
       </c>
       <c r="R27" t="n">
-        <v>655.9554523906668</v>
+        <v>662.0605388381871</v>
       </c>
       <c r="S27" t="n">
-        <v>655.9554523906668</v>
+        <v>662.0605388381871</v>
       </c>
       <c r="T27" t="n">
-        <v>438.8394323994319</v>
+        <v>659.9399518451286</v>
       </c>
       <c r="U27" t="n">
-        <v>414.2109824875192</v>
+        <v>563.731287406441</v>
       </c>
       <c r="V27" t="n">
-        <v>386.1266973893297</v>
+        <v>320.6515693100751</v>
       </c>
       <c r="W27" t="n">
-        <v>331.7235611177974</v>
+        <v>51.25300004036642</v>
       </c>
       <c r="X27" t="n">
-        <v>327.2109997326701</v>
+        <v>46.74043865523911</v>
       </c>
       <c r="Y27" t="n">
-        <v>163.0376771054983</v>
+        <v>36.09517858874311</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.09517858874308</v>
+        <v>70.97145101193732</v>
       </c>
       <c r="C28" t="n">
-        <v>36.09517858874308</v>
+        <v>70.97145101193732</v>
       </c>
       <c r="D28" t="n">
-        <v>36.09517858874308</v>
+        <v>70.97145101193732</v>
       </c>
       <c r="E28" t="n">
-        <v>36.09517858874308</v>
+        <v>70.97145101193732</v>
       </c>
       <c r="F28" t="n">
-        <v>36.09517858874308</v>
+        <v>70.97145101193732</v>
       </c>
       <c r="G28" t="n">
-        <v>36.09517858874308</v>
+        <v>114.6800746509846</v>
       </c>
       <c r="H28" t="n">
-        <v>36.09517858874308</v>
+        <v>161.2786617892543</v>
       </c>
       <c r="I28" t="n">
-        <v>36.09517858874308</v>
+        <v>208.9526456685257</v>
       </c>
       <c r="J28" t="n">
-        <v>36.09517858874308</v>
+        <v>270.7419715358033</v>
       </c>
       <c r="K28" t="n">
-        <v>36.09517858874308</v>
+        <v>270.7419715358033</v>
       </c>
       <c r="L28" t="n">
-        <v>96.37045088625339</v>
+        <v>270.7419715358033</v>
       </c>
       <c r="M28" t="n">
-        <v>96.37045088625339</v>
+        <v>270.7419715358033</v>
       </c>
       <c r="N28" t="n">
-        <v>96.37045088625339</v>
+        <v>270.7419715358033</v>
       </c>
       <c r="O28" t="n">
-        <v>270.7419715358031</v>
+        <v>270.7419715358033</v>
       </c>
       <c r="P28" t="n">
-        <v>270.7419715358031</v>
+        <v>270.7419715358033</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.7419715358031</v>
+        <v>270.7419715358033</v>
       </c>
       <c r="R28" t="n">
-        <v>270.7419715358031</v>
+        <v>270.7419715358033</v>
       </c>
       <c r="S28" t="n">
-        <v>248.0166282098072</v>
+        <v>248.0166282098074</v>
       </c>
       <c r="T28" t="n">
-        <v>237.0136820482055</v>
+        <v>237.0136820482057</v>
       </c>
       <c r="U28" t="n">
-        <v>160.4371339659328</v>
+        <v>160.4371339659329</v>
       </c>
       <c r="V28" t="n">
-        <v>127.8477031414324</v>
+        <v>127.8477031414326</v>
       </c>
       <c r="W28" t="n">
-        <v>49.59999766553272</v>
+        <v>49.5999976655328</v>
       </c>
       <c r="X28" t="n">
-        <v>40.43436459477724</v>
+        <v>40.43436459477729</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.09517858874308</v>
+        <v>36.09517858874311</v>
       </c>
     </row>
     <row r="29">
@@ -6440,22 +6440,22 @@
         <v>1024.989143861833</v>
       </c>
       <c r="C29" t="n">
-        <v>886.2416502123541</v>
+        <v>886.241650212354</v>
       </c>
       <c r="D29" t="n">
-        <v>760.053083571917</v>
+        <v>760.0530835719168</v>
       </c>
       <c r="E29" t="n">
-        <v>599.8172922654104</v>
+        <v>599.8172922654101</v>
       </c>
       <c r="F29" t="n">
-        <v>407.5407559302398</v>
+        <v>407.5407559302395</v>
       </c>
       <c r="G29" t="n">
-        <v>199.479534942951</v>
+        <v>199.4795349429504</v>
       </c>
       <c r="H29" t="n">
-        <v>64.07332369144451</v>
+        <v>64.07332369144457</v>
       </c>
       <c r="I29" t="n">
         <v>36.09517858874311</v>
@@ -6464,28 +6464,28 @@
         <v>171.8138854154936</v>
       </c>
       <c r="K29" t="n">
-        <v>377.3929389292102</v>
+        <v>377.3929389292101</v>
       </c>
       <c r="L29" t="n">
-        <v>636.7189186691558</v>
+        <v>636.7189186691555</v>
       </c>
       <c r="M29" t="n">
-        <v>930.3987315707765</v>
+        <v>930.3987315707762</v>
       </c>
       <c r="N29" t="n">
-        <v>1218.578533116674</v>
+        <v>1218.578533116673</v>
       </c>
       <c r="O29" t="n">
         <v>1465.5321026131</v>
       </c>
       <c r="P29" t="n">
-        <v>1663.028607199425</v>
+        <v>1663.028607199424</v>
       </c>
       <c r="Q29" t="n">
         <v>1786.223060293145</v>
       </c>
       <c r="R29" t="n">
-        <v>1804.758929437155</v>
+        <v>1804.758929437156</v>
       </c>
       <c r="S29" t="n">
         <v>1790.217396941448</v>
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>88.48330463903841</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="C30" t="n">
-        <v>88.48330463903841</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="D30" t="n">
-        <v>88.48330463903841</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="E30" t="n">
-        <v>88.48330463903841</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="F30" t="n">
-        <v>88.48330463903841</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="G30" t="n">
-        <v>88.48330463903841</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="H30" t="n">
-        <v>88.48330463903841</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="I30" t="n">
-        <v>88.48330463903841</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="J30" t="n">
         <v>36.09517858874311</v>
@@ -6555,37 +6555,37 @@
         <v>583.6837472647559</v>
       </c>
       <c r="O30" t="n">
-        <v>662.0605388381847</v>
+        <v>662.0605388381938</v>
       </c>
       <c r="P30" t="n">
-        <v>662.0605388381847</v>
+        <v>662.0605388381938</v>
       </c>
       <c r="Q30" t="n">
-        <v>655.955452390667</v>
+        <v>662.0605388381938</v>
       </c>
       <c r="R30" t="n">
-        <v>655.955452390667</v>
+        <v>662.0605388381938</v>
       </c>
       <c r="S30" t="n">
-        <v>655.955452390667</v>
+        <v>468.655809312157</v>
       </c>
       <c r="T30" t="n">
-        <v>640.7478633686488</v>
+        <v>251.5397893209221</v>
       </c>
       <c r="U30" t="n">
-        <v>616.1194134567362</v>
+        <v>226.9113394090094</v>
       </c>
       <c r="V30" t="n">
-        <v>588.0351283585467</v>
+        <v>198.8270543108198</v>
       </c>
       <c r="W30" t="n">
-        <v>533.6319920870144</v>
+        <v>144.4239180392874</v>
       </c>
       <c r="X30" t="n">
-        <v>314.1239977037108</v>
+        <v>139.9113566541601</v>
       </c>
       <c r="Y30" t="n">
-        <v>88.48330463903841</v>
+        <v>36.09517858874311</v>
       </c>
     </row>
     <row r="31">
@@ -6628,40 +6628,40 @@
         <v>36.09517858874311</v>
       </c>
       <c r="M31" t="n">
-        <v>222.6887972469098</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="N31" t="n">
-        <v>270.7419715358031</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="O31" t="n">
-        <v>270.7419715358031</v>
+        <v>117.2696541221798</v>
       </c>
       <c r="P31" t="n">
-        <v>270.7419715358031</v>
+        <v>270.7419715358035</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.7419715358031</v>
+        <v>270.7419715358035</v>
       </c>
       <c r="R31" t="n">
-        <v>270.7419715358031</v>
+        <v>270.7419715358035</v>
       </c>
       <c r="S31" t="n">
-        <v>248.0166282098073</v>
+        <v>248.0166282098076</v>
       </c>
       <c r="T31" t="n">
-        <v>237.0136820482056</v>
+        <v>237.0136820482059</v>
       </c>
       <c r="U31" t="n">
-        <v>160.4371339659328</v>
+        <v>160.437133965933</v>
       </c>
       <c r="V31" t="n">
-        <v>127.8477031414325</v>
+        <v>127.8477031414326</v>
       </c>
       <c r="W31" t="n">
-        <v>49.59999766553275</v>
+        <v>49.59999766553286</v>
       </c>
       <c r="X31" t="n">
-        <v>40.43436459477726</v>
+        <v>40.43436459477732</v>
       </c>
       <c r="Y31" t="n">
         <v>36.09517858874311</v>
@@ -6674,40 +6674,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1024.989143861833</v>
+        <v>1024.989143861832</v>
       </c>
       <c r="C32" t="n">
-        <v>886.2416502123543</v>
+        <v>886.241650212353</v>
       </c>
       <c r="D32" t="n">
-        <v>760.0530835719172</v>
+        <v>760.0530835719159</v>
       </c>
       <c r="E32" t="n">
-        <v>599.8172922654105</v>
+        <v>599.8172922654092</v>
       </c>
       <c r="F32" t="n">
-        <v>407.5407559302399</v>
+        <v>407.5407559302386</v>
       </c>
       <c r="G32" t="n">
-        <v>199.479534942951</v>
+        <v>199.4795349429503</v>
       </c>
       <c r="H32" t="n">
-        <v>64.07332369144457</v>
+        <v>64.07332369144454</v>
       </c>
       <c r="I32" t="n">
         <v>36.09517858874311</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8138854154934</v>
+        <v>171.8138854154936</v>
       </c>
       <c r="K32" t="n">
-        <v>377.3929389292101</v>
+        <v>377.3929389292102</v>
       </c>
       <c r="L32" t="n">
-        <v>636.7189186691555</v>
+        <v>636.7189186691556</v>
       </c>
       <c r="M32" t="n">
-        <v>930.3987315707762</v>
+        <v>930.3987315707764</v>
       </c>
       <c r="N32" t="n">
         <v>1218.578533116673</v>
@@ -6722,28 +6722,28 @@
         <v>1786.223060293145</v>
       </c>
       <c r="R32" t="n">
-        <v>1804.758929437155</v>
+        <v>1804.758929437156</v>
       </c>
       <c r="S32" t="n">
-        <v>1790.217396941448</v>
+        <v>1790.217396941447</v>
       </c>
       <c r="T32" t="n">
-        <v>1780.553257162871</v>
+        <v>1780.55325716287</v>
       </c>
       <c r="U32" t="n">
         <v>1742.872352129444</v>
       </c>
       <c r="V32" t="n">
-        <v>1633.746791583023</v>
+        <v>1633.746791583022</v>
       </c>
       <c r="W32" t="n">
-        <v>1507.432665161233</v>
+        <v>1507.432665161232</v>
       </c>
       <c r="X32" t="n">
-        <v>1359.011215033443</v>
+        <v>1359.011215033442</v>
       </c>
       <c r="Y32" t="n">
-        <v>1187.859610235206</v>
+        <v>1187.859610235204</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>209.6583824673286</v>
+        <v>225.5074528557794</v>
       </c>
       <c r="C33" t="n">
-        <v>209.6583824673286</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="D33" t="n">
-        <v>209.6583824673286</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="E33" t="n">
         <v>36.09517858874311</v>
@@ -6789,40 +6789,40 @@
         <v>377.113806180254</v>
       </c>
       <c r="N33" t="n">
-        <v>443.9889325685542</v>
+        <v>583.6837472647559</v>
       </c>
       <c r="O33" t="n">
-        <v>577.2129895868115</v>
+        <v>662.0605388381875</v>
       </c>
       <c r="P33" t="n">
-        <v>662.0605388381897</v>
+        <v>662.0605388381875</v>
       </c>
       <c r="Q33" t="n">
-        <v>655.955452390672</v>
+        <v>662.0605388381875</v>
       </c>
       <c r="R33" t="n">
-        <v>655.955452390672</v>
+        <v>662.0605388381875</v>
       </c>
       <c r="S33" t="n">
-        <v>655.955452390672</v>
+        <v>662.0605388381875</v>
       </c>
       <c r="T33" t="n">
-        <v>653.8348653976134</v>
+        <v>659.939951845129</v>
       </c>
       <c r="U33" t="n">
-        <v>629.2064154857006</v>
+        <v>635.3115019332163</v>
       </c>
       <c r="V33" t="n">
-        <v>601.122130387511</v>
+        <v>392.2317838368504</v>
       </c>
       <c r="W33" t="n">
-        <v>546.7189941159786</v>
+        <v>240.6652743074027</v>
       </c>
       <c r="X33" t="n">
-        <v>542.2064327308512</v>
+        <v>236.1527129222754</v>
       </c>
       <c r="Y33" t="n">
-        <v>316.565739666179</v>
+        <v>225.5074528557794</v>
       </c>
     </row>
     <row r="34">
@@ -6853,52 +6853,52 @@
         <v>36.09517858874311</v>
       </c>
       <c r="I34" t="n">
-        <v>36.09517858874311</v>
+        <v>83.76916246801446</v>
       </c>
       <c r="J34" t="n">
-        <v>36.09517858874311</v>
+        <v>83.76916246801446</v>
       </c>
       <c r="K34" t="n">
-        <v>36.09517858874311</v>
+        <v>83.76916246801446</v>
       </c>
       <c r="L34" t="n">
-        <v>36.09517858874311</v>
+        <v>83.76916246801446</v>
       </c>
       <c r="M34" t="n">
-        <v>36.09517858874311</v>
+        <v>83.76916246801446</v>
       </c>
       <c r="N34" t="n">
-        <v>36.09517858874311</v>
+        <v>185.5203561027683</v>
       </c>
       <c r="O34" t="n">
-        <v>210.4666992382927</v>
+        <v>185.5203561027683</v>
       </c>
       <c r="P34" t="n">
-        <v>270.7419715358035</v>
+        <v>185.5203561027683</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.7419715358035</v>
+        <v>270.7419715358033</v>
       </c>
       <c r="R34" t="n">
-        <v>270.7419715358035</v>
+        <v>270.7419715358033</v>
       </c>
       <c r="S34" t="n">
-        <v>248.0166282098076</v>
+        <v>248.0166282098074</v>
       </c>
       <c r="T34" t="n">
-        <v>237.0136820482059</v>
+        <v>237.0136820482057</v>
       </c>
       <c r="U34" t="n">
-        <v>160.437133965933</v>
+        <v>160.4371339659329</v>
       </c>
       <c r="V34" t="n">
         <v>127.8477031414326</v>
       </c>
       <c r="W34" t="n">
-        <v>49.59999766553286</v>
+        <v>49.5999976655328</v>
       </c>
       <c r="X34" t="n">
-        <v>40.43436459477732</v>
+        <v>40.43436459477729</v>
       </c>
       <c r="Y34" t="n">
         <v>36.09517858874311</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>856.9281533672747</v>
+        <v>856.9281533672756</v>
       </c>
       <c r="C35" t="n">
-        <v>741.2446565210513</v>
+        <v>741.244656521052</v>
       </c>
       <c r="D35" t="n">
-        <v>638.1200866838699</v>
+        <v>638.1200866838706</v>
       </c>
       <c r="E35" t="n">
-        <v>500.9482921806189</v>
+        <v>500.9482921806197</v>
       </c>
       <c r="F35" t="n">
-        <v>331.7357526487039</v>
+        <v>331.7357526487048</v>
       </c>
       <c r="G35" t="n">
-        <v>146.7385284646707</v>
+        <v>146.7385284646716</v>
       </c>
       <c r="H35" t="n">
-        <v>34.39631401642136</v>
+        <v>34.39631401642131</v>
       </c>
       <c r="I35" t="n">
         <v>29.48216571697559</v>
       </c>
       <c r="J35" t="n">
-        <v>132.2145783216463</v>
+        <v>187.805895810597</v>
       </c>
       <c r="K35" t="n">
-        <v>152.4528900295801</v>
+        <v>208.0442075185309</v>
       </c>
       <c r="L35" t="n">
-        <v>434.3838930363964</v>
+        <v>489.9752105253473</v>
       </c>
       <c r="M35" t="n">
-        <v>750.668729204888</v>
+        <v>799.6468497826049</v>
       </c>
       <c r="N35" t="n">
-        <v>1061.453554017656</v>
+        <v>799.6468497826049</v>
       </c>
       <c r="O35" t="n">
-        <v>1086.721214497277</v>
+        <v>1067.066389224111</v>
       </c>
       <c r="P35" t="n">
-        <v>1306.822742350472</v>
+        <v>1287.167917077306</v>
       </c>
       <c r="Q35" t="n">
-        <v>1452.622218711064</v>
+        <v>1432.967393437898</v>
       </c>
       <c r="R35" t="n">
-        <v>1452.622218711064</v>
+        <v>1474.10828584878</v>
       </c>
       <c r="S35" t="n">
-        <v>1460.975085978891</v>
+        <v>1474.10828584878</v>
       </c>
       <c r="T35" t="n">
-        <v>1474.108285848779</v>
+        <v>1474.10828584878</v>
       </c>
       <c r="U35" t="n">
-        <v>1459.491377618608</v>
+        <v>1459.491377618609</v>
       </c>
       <c r="V35" t="n">
-        <v>1373.429813875442</v>
+        <v>1373.429813875443</v>
       </c>
       <c r="W35" t="n">
-        <v>1270.179684256907</v>
+        <v>1270.179684256908</v>
       </c>
       <c r="X35" t="n">
         <v>1144.822230932374</v>
       </c>
       <c r="Y35" t="n">
-        <v>996.7346229373917</v>
+        <v>996.7346229373924</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>29.48216571697559</v>
+        <v>59.83603144598145</v>
       </c>
       <c r="C36" t="n">
-        <v>29.48216571697559</v>
+        <v>59.83603144598145</v>
       </c>
       <c r="D36" t="n">
-        <v>29.48216571697559</v>
+        <v>59.83603144598145</v>
       </c>
       <c r="E36" t="n">
-        <v>29.48216571697559</v>
+        <v>59.83603144598145</v>
       </c>
       <c r="F36" t="n">
-        <v>29.48216571697559</v>
+        <v>59.83603144598145</v>
       </c>
       <c r="G36" t="n">
-        <v>29.48216571697559</v>
+        <v>59.83603144598145</v>
       </c>
       <c r="H36" t="n">
-        <v>29.48216571697559</v>
+        <v>67.40604658884307</v>
       </c>
       <c r="I36" t="n">
-        <v>29.48216571697559</v>
+        <v>67.40604658884307</v>
       </c>
       <c r="J36" t="n">
-        <v>29.48216571697559</v>
+        <v>67.40604658884307</v>
       </c>
       <c r="K36" t="n">
-        <v>29.48216571697559</v>
+        <v>67.40604658884307</v>
       </c>
       <c r="L36" t="n">
-        <v>29.48216571697559</v>
+        <v>67.40604658884307</v>
       </c>
       <c r="M36" t="n">
-        <v>29.48216571697559</v>
+        <v>67.40604658884307</v>
       </c>
       <c r="N36" t="n">
-        <v>29.48216571697559</v>
+        <v>67.40604658884307</v>
       </c>
       <c r="O36" t="n">
-        <v>29.48216571697559</v>
+        <v>67.40604658884307</v>
       </c>
       <c r="P36" t="n">
-        <v>67.40604658884322</v>
+        <v>67.40604658884307</v>
       </c>
       <c r="Q36" t="n">
-        <v>67.40604658884322</v>
+        <v>67.40604658884307</v>
       </c>
       <c r="R36" t="n">
-        <v>67.40604658884322</v>
+        <v>67.40604658884307</v>
       </c>
       <c r="S36" t="n">
-        <v>67.40604658884322</v>
+        <v>67.40604658884307</v>
       </c>
       <c r="T36" t="n">
-        <v>67.40604658884322</v>
+        <v>67.40604658884307</v>
       </c>
       <c r="U36" t="n">
-        <v>65.84159348018618</v>
+        <v>65.84159348018608</v>
       </c>
       <c r="V36" t="n">
-        <v>60.82130518525227</v>
+        <v>60.82130518525222</v>
       </c>
       <c r="W36" t="n">
         <v>29.48216571697559</v>
       </c>
       <c r="X36" t="n">
-        <v>29.48216571697559</v>
+        <v>47.66442757028325</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.48216571697559</v>
+        <v>59.83603144598145</v>
       </c>
     </row>
     <row r="37">
@@ -7087,49 +7087,49 @@
         <v>29.48216571697559</v>
       </c>
       <c r="H37" t="n">
-        <v>77.42485254373928</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="I37" t="n">
-        <v>147.7038596898815</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="J37" t="n">
-        <v>147.7038596898815</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="K37" t="n">
-        <v>147.7038596898815</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="L37" t="n">
-        <v>147.7038596898815</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="M37" t="n">
-        <v>147.7038596898815</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="N37" t="n">
-        <v>147.7038596898815</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="O37" t="n">
-        <v>147.7038596898815</v>
+        <v>58.23592950661025</v>
       </c>
       <c r="P37" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="Q37" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="R37" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="S37" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="T37" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="U37" t="n">
-        <v>94.19130841086437</v>
+        <v>94.19130841086425</v>
       </c>
       <c r="V37" t="n">
-        <v>84.66587438961969</v>
+        <v>84.66587438961963</v>
       </c>
       <c r="W37" t="n">
         <v>29.48216571697559</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>856.9281533672753</v>
+        <v>856.9281533672751</v>
       </c>
       <c r="C38" t="n">
-        <v>741.244656521052</v>
+        <v>741.2446565210516</v>
       </c>
       <c r="D38" t="n">
-        <v>638.1200866838706</v>
+        <v>638.1200866838701</v>
       </c>
       <c r="E38" t="n">
-        <v>500.9482921806195</v>
+        <v>500.9482921806189</v>
       </c>
       <c r="F38" t="n">
-        <v>331.7357526487046</v>
+        <v>331.7357526487039</v>
       </c>
       <c r="G38" t="n">
-        <v>146.7385284646714</v>
+        <v>146.7385284646707</v>
       </c>
       <c r="H38" t="n">
         <v>34.39631401642136</v>
@@ -7172,43 +7172,43 @@
         <v>29.48216571697559</v>
       </c>
       <c r="J38" t="n">
-        <v>119.7402353798693</v>
+        <v>79.32703524540818</v>
       </c>
       <c r="K38" t="n">
-        <v>347.9243121604567</v>
+        <v>307.5111120259956</v>
       </c>
       <c r="L38" t="n">
-        <v>629.855315167273</v>
+        <v>307.5111120259956</v>
       </c>
       <c r="M38" t="n">
-        <v>946.1401513357646</v>
+        <v>623.7959481944872</v>
       </c>
       <c r="N38" t="n">
-        <v>1256.924976148533</v>
+        <v>934.5807730072552</v>
       </c>
       <c r="O38" t="n">
-        <v>1293.161521763446</v>
+        <v>1204.139365770553</v>
       </c>
       <c r="P38" t="n">
-        <v>1306.822742350472</v>
+        <v>1315.1756096183</v>
       </c>
       <c r="Q38" t="n">
-        <v>1452.622218711064</v>
+        <v>1460.975085978892</v>
       </c>
       <c r="R38" t="n">
-        <v>1452.622218711064</v>
+        <v>1460.975085978892</v>
       </c>
       <c r="S38" t="n">
-        <v>1460.975085978891</v>
+        <v>1460.975085978892</v>
       </c>
       <c r="T38" t="n">
-        <v>1474.108285848779</v>
+        <v>1474.10828584878</v>
       </c>
       <c r="U38" t="n">
-        <v>1459.491377618609</v>
+        <v>1459.491377618608</v>
       </c>
       <c r="V38" t="n">
-        <v>1373.429813875443</v>
+        <v>1373.429813875442</v>
       </c>
       <c r="W38" t="n">
         <v>1270.179684256908</v>
@@ -7217,7 +7217,7 @@
         <v>1144.822230932374</v>
       </c>
       <c r="Y38" t="n">
-        <v>996.7346229373921</v>
+        <v>996.7346229373919</v>
       </c>
     </row>
     <row r="39">
@@ -7236,58 +7236,58 @@
         <v>29.48216571697559</v>
       </c>
       <c r="E39" t="n">
-        <v>29.48216571697559</v>
+        <v>67.40604658884324</v>
       </c>
       <c r="F39" t="n">
-        <v>67.40604658884322</v>
+        <v>67.40604658884324</v>
       </c>
       <c r="G39" t="n">
-        <v>67.40604658884322</v>
+        <v>67.40604658884324</v>
       </c>
       <c r="H39" t="n">
-        <v>67.40604658884322</v>
+        <v>67.40604658884324</v>
       </c>
       <c r="I39" t="n">
-        <v>67.40604658884322</v>
+        <v>67.40604658884324</v>
       </c>
       <c r="J39" t="n">
-        <v>67.40604658884322</v>
+        <v>67.40604658884324</v>
       </c>
       <c r="K39" t="n">
-        <v>67.40604658884322</v>
+        <v>67.40604658884324</v>
       </c>
       <c r="L39" t="n">
-        <v>67.40604658884322</v>
+        <v>67.40604658884324</v>
       </c>
       <c r="M39" t="n">
-        <v>67.40604658884322</v>
+        <v>67.40604658884324</v>
       </c>
       <c r="N39" t="n">
-        <v>67.40604658884322</v>
+        <v>67.40604658884324</v>
       </c>
       <c r="O39" t="n">
-        <v>67.40604658884322</v>
+        <v>67.40604658884324</v>
       </c>
       <c r="P39" t="n">
-        <v>67.40604658884322</v>
+        <v>67.40604658884324</v>
       </c>
       <c r="Q39" t="n">
-        <v>67.40604658884322</v>
+        <v>67.40604658884324</v>
       </c>
       <c r="R39" t="n">
-        <v>67.40604658884322</v>
+        <v>67.40604658884324</v>
       </c>
       <c r="S39" t="n">
-        <v>67.40604658884322</v>
+        <v>67.40604658884324</v>
       </c>
       <c r="T39" t="n">
-        <v>67.40604658884322</v>
+        <v>67.40604658884324</v>
       </c>
       <c r="U39" t="n">
-        <v>65.84159348018618</v>
+        <v>65.84159348018619</v>
       </c>
       <c r="V39" t="n">
-        <v>60.82130518525227</v>
+        <v>60.82130518525228</v>
       </c>
       <c r="W39" t="n">
         <v>29.48216571697559</v>
@@ -7306,58 +7306,58 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.18568343314513</v>
+        <v>86.96346140704068</v>
       </c>
       <c r="C40" t="n">
-        <v>103.715121419276</v>
+        <v>86.96346140704068</v>
       </c>
       <c r="D40" t="n">
-        <v>103.715121419276</v>
+        <v>86.96346140704068</v>
       </c>
       <c r="E40" t="n">
-        <v>103.715121419276</v>
+        <v>86.96346140704068</v>
       </c>
       <c r="F40" t="n">
-        <v>103.715121419276</v>
+        <v>86.96346140704068</v>
       </c>
       <c r="G40" t="n">
-        <v>103.715121419276</v>
+        <v>86.96346140704068</v>
       </c>
       <c r="H40" t="n">
-        <v>103.715121419276</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="I40" t="n">
-        <v>103.715121419276</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="J40" t="n">
-        <v>103.715121419276</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="K40" t="n">
-        <v>103.715121419276</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="L40" t="n">
-        <v>103.715121419276</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="M40" t="n">
-        <v>103.715121419276</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="N40" t="n">
-        <v>103.715121419276</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="O40" t="n">
-        <v>103.715121419276</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="P40" t="n">
-        <v>103.715121419276</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="Q40" t="n">
-        <v>103.715121419276</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="R40" t="n">
-        <v>135.8828239559965</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="S40" t="n">
-        <v>135.8828239559965</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="T40" t="n">
         <v>147.7038596898815</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>856.9281533672759</v>
+        <v>856.9281533672761</v>
       </c>
       <c r="C41" t="n">
-        <v>741.2446565210522</v>
+        <v>741.2446565210524</v>
       </c>
       <c r="D41" t="n">
-        <v>638.1200866838708</v>
+        <v>638.120086683871</v>
       </c>
       <c r="E41" t="n">
-        <v>500.9482921806198</v>
+        <v>500.9482921806201</v>
       </c>
       <c r="F41" t="n">
-        <v>331.7357526487049</v>
+        <v>331.7357526487052</v>
       </c>
       <c r="G41" t="n">
-        <v>146.7385284646714</v>
+        <v>146.7385284646721</v>
       </c>
       <c r="H41" t="n">
-        <v>34.39631401642133</v>
+        <v>34.39631401642131</v>
       </c>
       <c r="I41" t="n">
         <v>29.48216571697559</v>
@@ -7412,34 +7412,34 @@
         <v>187.805895810597</v>
       </c>
       <c r="K41" t="n">
-        <v>208.0442075185308</v>
+        <v>415.9899725911845</v>
       </c>
       <c r="L41" t="n">
-        <v>489.9752105253472</v>
+        <v>697.920975598001</v>
       </c>
       <c r="M41" t="n">
-        <v>806.2600466938388</v>
+        <v>998.1425128793887</v>
       </c>
       <c r="N41" t="n">
-        <v>1117.044871506607</v>
+        <v>1308.927337692157</v>
       </c>
       <c r="O41" t="n">
-        <v>1386.603464269904</v>
+        <v>1308.927337692157</v>
       </c>
       <c r="P41" t="n">
-        <v>1386.603464269904</v>
+        <v>1401.886162747732</v>
       </c>
       <c r="Q41" t="n">
-        <v>1424.61452617007</v>
+        <v>1411.481326300182</v>
       </c>
       <c r="R41" t="n">
-        <v>1465.755418580951</v>
+        <v>1452.622218711064</v>
       </c>
       <c r="S41" t="n">
-        <v>1474.108285848779</v>
+        <v>1460.975085978892</v>
       </c>
       <c r="T41" t="n">
-        <v>1474.108285848779</v>
+        <v>1474.10828584878</v>
       </c>
       <c r="U41" t="n">
         <v>1459.491377618609</v>
@@ -7448,13 +7448,13 @@
         <v>1373.429813875443</v>
       </c>
       <c r="W41" t="n">
-        <v>1270.179684256908</v>
+        <v>1270.179684256909</v>
       </c>
       <c r="X41" t="n">
         <v>1144.822230932375</v>
       </c>
       <c r="Y41" t="n">
-        <v>996.7346229373927</v>
+        <v>996.7346229373928</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>67.40604658884314</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="C42" t="n">
-        <v>67.40604658884314</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="D42" t="n">
-        <v>67.40604658884314</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="E42" t="n">
-        <v>67.40604658884314</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="F42" t="n">
-        <v>67.40604658884314</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="G42" t="n">
-        <v>67.40604658884314</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="H42" t="n">
-        <v>67.40604658884314</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="I42" t="n">
-        <v>67.40604658884314</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="J42" t="n">
-        <v>67.40604658884314</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="K42" t="n">
-        <v>67.40604658884314</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="L42" t="n">
-        <v>67.40604658884314</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="M42" t="n">
-        <v>67.40604658884314</v>
+        <v>67.40604658884307</v>
       </c>
       <c r="N42" t="n">
-        <v>67.40604658884314</v>
+        <v>67.40604658884307</v>
       </c>
       <c r="O42" t="n">
-        <v>67.40604658884314</v>
+        <v>67.40604658884307</v>
       </c>
       <c r="P42" t="n">
-        <v>67.40604658884314</v>
+        <v>67.40604658884307</v>
       </c>
       <c r="Q42" t="n">
-        <v>67.40604658884314</v>
+        <v>67.40604658884307</v>
       </c>
       <c r="R42" t="n">
-        <v>67.40604658884314</v>
+        <v>67.40604658884307</v>
       </c>
       <c r="S42" t="n">
-        <v>67.40604658884314</v>
+        <v>67.40604658884307</v>
       </c>
       <c r="T42" t="n">
-        <v>67.40604658884314</v>
+        <v>67.40604658884307</v>
       </c>
       <c r="U42" t="n">
-        <v>65.84159348018612</v>
+        <v>65.84159348018608</v>
       </c>
       <c r="V42" t="n">
-        <v>60.82130518525224</v>
+        <v>60.82130518525222</v>
       </c>
       <c r="W42" t="n">
         <v>29.48216571697559</v>
       </c>
       <c r="X42" t="n">
-        <v>47.66442757028321</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="Y42" t="n">
-        <v>59.83603144598138</v>
+        <v>29.48216571697559</v>
       </c>
     </row>
     <row r="43">
@@ -7543,67 +7543,67 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.48216571697559</v>
+        <v>86.96346140704074</v>
       </c>
       <c r="C43" t="n">
-        <v>29.48216571697559</v>
+        <v>86.96346140704074</v>
       </c>
       <c r="D43" t="n">
-        <v>29.48216571697559</v>
+        <v>86.96346140704074</v>
       </c>
       <c r="E43" t="n">
-        <v>29.48216571697559</v>
+        <v>86.96346140704074</v>
       </c>
       <c r="F43" t="n">
-        <v>29.48216571697559</v>
+        <v>86.96346140704074</v>
       </c>
       <c r="G43" t="n">
-        <v>29.48216571697559</v>
+        <v>115.5361571531608</v>
       </c>
       <c r="H43" t="n">
-        <v>29.48216571697559</v>
+        <v>115.5361571531608</v>
       </c>
       <c r="I43" t="n">
-        <v>29.48216571697559</v>
+        <v>115.5361571531608</v>
       </c>
       <c r="J43" t="n">
-        <v>29.48216571697559</v>
+        <v>115.5361571531608</v>
       </c>
       <c r="K43" t="n">
-        <v>29.48216571697559</v>
+        <v>115.5361571531608</v>
       </c>
       <c r="L43" t="n">
-        <v>29.48216571697559</v>
+        <v>115.5361571531608</v>
       </c>
       <c r="M43" t="n">
-        <v>29.48216571697559</v>
+        <v>115.5361571531608</v>
       </c>
       <c r="N43" t="n">
-        <v>29.48216571697559</v>
+        <v>115.5361571531608</v>
       </c>
       <c r="O43" t="n">
-        <v>29.48216571697559</v>
+        <v>115.5361571531608</v>
       </c>
       <c r="P43" t="n">
-        <v>29.48216571697559</v>
+        <v>115.5361571531608</v>
       </c>
       <c r="Q43" t="n">
-        <v>137.3088044168815</v>
+        <v>115.5361571531608</v>
       </c>
       <c r="R43" t="n">
-        <v>147.7038596898814</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="S43" t="n">
-        <v>147.7038596898814</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="T43" t="n">
-        <v>147.7038596898814</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="U43" t="n">
-        <v>94.19130841086431</v>
+        <v>94.19130841086425</v>
       </c>
       <c r="V43" t="n">
-        <v>84.66587438961966</v>
+        <v>84.66587438961963</v>
       </c>
       <c r="W43" t="n">
         <v>29.48216571697559</v>
@@ -7622,61 +7622,61 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>856.9281533672751</v>
+        <v>856.9281533672762</v>
       </c>
       <c r="C44" t="n">
-        <v>741.2446565210519</v>
+        <v>741.2446565210528</v>
       </c>
       <c r="D44" t="n">
-        <v>638.1200866838703</v>
+        <v>638.1200866838712</v>
       </c>
       <c r="E44" t="n">
-        <v>500.9482921806191</v>
+        <v>500.9482921806201</v>
       </c>
       <c r="F44" t="n">
-        <v>331.7357526487041</v>
+        <v>331.7357526487052</v>
       </c>
       <c r="G44" t="n">
-        <v>146.7385284646709</v>
+        <v>146.7385284646721</v>
       </c>
       <c r="H44" t="n">
-        <v>34.39631401642136</v>
+        <v>34.39631401642131</v>
       </c>
       <c r="I44" t="n">
         <v>29.48216571697559</v>
       </c>
       <c r="J44" t="n">
-        <v>187.805895810597</v>
+        <v>79.32703524540824</v>
       </c>
       <c r="K44" t="n">
-        <v>280.4154146459302</v>
+        <v>307.5111120259957</v>
       </c>
       <c r="L44" t="n">
-        <v>562.3464176527465</v>
+        <v>589.4421150328121</v>
       </c>
       <c r="M44" t="n">
-        <v>878.631253821238</v>
+        <v>905.7269512013038</v>
       </c>
       <c r="N44" t="n">
-        <v>1189.416078634006</v>
+        <v>1216.511776014072</v>
       </c>
       <c r="O44" t="n">
-        <v>1214.683739113627</v>
+        <v>1451.379922426442</v>
       </c>
       <c r="P44" t="n">
-        <v>1265.68184993959</v>
+        <v>1451.379922426442</v>
       </c>
       <c r="Q44" t="n">
-        <v>1411.481326300182</v>
+        <v>1460.975085978892</v>
       </c>
       <c r="R44" t="n">
-        <v>1452.622218711064</v>
+        <v>1460.975085978892</v>
       </c>
       <c r="S44" t="n">
-        <v>1460.975085978891</v>
+        <v>1460.975085978892</v>
       </c>
       <c r="T44" t="n">
-        <v>1474.108285848779</v>
+        <v>1474.10828584878</v>
       </c>
       <c r="U44" t="n">
         <v>1459.491377618609</v>
@@ -7685,13 +7685,13 @@
         <v>1373.429813875443</v>
       </c>
       <c r="W44" t="n">
-        <v>1270.179684256908</v>
+        <v>1270.179684256909</v>
       </c>
       <c r="X44" t="n">
-        <v>1144.822230932374</v>
+        <v>1144.822230932375</v>
       </c>
       <c r="Y44" t="n">
-        <v>996.7346229373919</v>
+        <v>996.7346229373929</v>
       </c>
     </row>
     <row r="45">
@@ -7731,37 +7731,37 @@
         <v>29.48216571697559</v>
       </c>
       <c r="L45" t="n">
-        <v>29.48216571697559</v>
+        <v>67.40604658884307</v>
       </c>
       <c r="M45" t="n">
-        <v>29.48216571697559</v>
+        <v>67.40604658884307</v>
       </c>
       <c r="N45" t="n">
-        <v>67.40604658884322</v>
+        <v>67.40604658884307</v>
       </c>
       <c r="O45" t="n">
-        <v>67.40604658884322</v>
+        <v>67.40604658884307</v>
       </c>
       <c r="P45" t="n">
-        <v>67.40604658884322</v>
+        <v>67.40604658884307</v>
       </c>
       <c r="Q45" t="n">
-        <v>67.40604658884322</v>
+        <v>67.40604658884307</v>
       </c>
       <c r="R45" t="n">
-        <v>67.40604658884322</v>
+        <v>67.40604658884307</v>
       </c>
       <c r="S45" t="n">
-        <v>67.40604658884322</v>
+        <v>67.40604658884307</v>
       </c>
       <c r="T45" t="n">
-        <v>67.40604658884322</v>
+        <v>67.40604658884307</v>
       </c>
       <c r="U45" t="n">
-        <v>65.84159348018618</v>
+        <v>65.84159348018608</v>
       </c>
       <c r="V45" t="n">
-        <v>60.82130518525227</v>
+        <v>60.82130518525222</v>
       </c>
       <c r="W45" t="n">
         <v>29.48216571697559</v>
@@ -7810,37 +7810,37 @@
         <v>29.48216571697559</v>
       </c>
       <c r="L46" t="n">
-        <v>58.23592950661047</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="M46" t="n">
-        <v>58.23592950661047</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="N46" t="n">
-        <v>58.23592950661047</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="O46" t="n">
-        <v>58.23592950661047</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="P46" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="Q46" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="R46" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="S46" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="T46" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="U46" t="n">
-        <v>94.19130841086437</v>
+        <v>94.19130841086425</v>
       </c>
       <c r="V46" t="n">
-        <v>84.66587438961969</v>
+        <v>84.66587438961963</v>
       </c>
       <c r="W46" t="n">
         <v>29.48216571697559</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>27.81531325251954</v>
+        <v>0.3700925547661491</v>
       </c>
       <c r="K11" t="n">
-        <v>207.9595475157995</v>
+        <v>93.24597309853772</v>
       </c>
       <c r="L11" t="n">
-        <v>99.55438831017642</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M11" t="n">
-        <v>85.49384940739031</v>
+        <v>207.4839727133473</v>
       </c>
       <c r="N11" t="n">
-        <v>283.4008070189657</v>
+        <v>83.16545374898405</v>
       </c>
       <c r="O11" t="n">
-        <v>246.758517458259</v>
+        <v>210.1559461300632</v>
       </c>
       <c r="P11" t="n">
-        <v>208.5255628951208</v>
+        <v>99.88949948329349</v>
       </c>
       <c r="Q11" t="n">
-        <v>21.33396690395307</v>
+        <v>21.33396690395315</v>
       </c>
       <c r="R11" t="n">
-        <v>32.05383439737088</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,10 +8766,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>131.9825104815849</v>
       </c>
       <c r="L12" t="n">
         <v>120.3824293501764</v>
@@ -8778,16 +8778,16 @@
         <v>116.626698625586</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>101.9573524286611</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>120.6530283274245</v>
       </c>
       <c r="P12" t="n">
         <v>120.6592788752669</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.1300824528302</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8845,28 +8845,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>13.57997872290079</v>
       </c>
       <c r="L13" t="n">
-        <v>14.63932284889063</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>115.6742602693208</v>
+        <v>58.29483223523005</v>
       </c>
       <c r="N13" t="n">
-        <v>111.3378805152112</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.456885863702553</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>109.5746066315038</v>
+        <v>63.34035913843792</v>
       </c>
       <c r="K14" t="n">
-        <v>93.24597309853763</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L14" t="n">
-        <v>270.6444670286918</v>
+        <v>99.55438831017651</v>
       </c>
       <c r="M14" t="n">
-        <v>85.49384940739031</v>
+        <v>85.4938494073904</v>
       </c>
       <c r="N14" t="n">
         <v>205.155577054941</v>
       </c>
       <c r="O14" t="n">
-        <v>88.16582282410614</v>
+        <v>210.1559461300632</v>
       </c>
       <c r="P14" t="n">
-        <v>208.5255628951208</v>
+        <v>144.0530753051746</v>
       </c>
       <c r="Q14" t="n">
-        <v>51.55676689769696</v>
+        <v>100.6567223102555</v>
       </c>
       <c r="R14" t="n">
-        <v>32.05383439737088</v>
+        <v>32.05383439737096</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,19 +9000,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>131.9825104815849</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>120.3824293501764</v>
       </c>
       <c r="M15" t="n">
-        <v>116.626698625586</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>101.9573524286611</v>
@@ -9024,10 +9024,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.1300824528302</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9082,28 +9082,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K16" t="n">
-        <v>5.348317736282866</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P16" t="n">
-        <v>57.6004175525061</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9960,16 +9960,16 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M27" t="n">
-        <v>301.77688131</v>
+        <v>160.6710078794905</v>
       </c>
       <c r="N27" t="n">
         <v>310.6138585746227</v>
       </c>
       <c r="O27" t="n">
-        <v>199.8215046642212</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P27" t="n">
-        <v>120.6592788752669</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q27" t="n">
         <v>136.1300824528302</v>
@@ -10203,7 +10203,7 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O30" t="n">
-        <v>199.8215046642213</v>
+        <v>199.8215046642304</v>
       </c>
       <c r="P30" t="n">
         <v>120.6592788752669</v>
@@ -10437,13 +10437,13 @@
         <v>301.77688131</v>
       </c>
       <c r="N33" t="n">
-        <v>169.5079851441159</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O33" t="n">
-        <v>255.2227828913207</v>
+        <v>199.8215046642241</v>
       </c>
       <c r="P33" t="n">
-        <v>206.3638740786793</v>
+        <v>120.6592788752669</v>
       </c>
       <c r="Q33" t="n">
         <v>136.1300824528302</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>106.7112313576162</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10592,13 +10592,13 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M35" t="n">
-        <v>291.2847697033555</v>
+        <v>284.6047728233211</v>
       </c>
       <c r="N35" t="n">
-        <v>283.4008070189657</v>
+        <v>205.155577054941</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P35" t="n">
         <v>208.5255628951208</v>
@@ -10607,7 +10607,7 @@
         <v>137.5801139476182</v>
       </c>
       <c r="R35" t="n">
-        <v>1.027783097004203</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>120.6530283274245</v>
       </c>
       <c r="P36" t="n">
-        <v>158.9662292508908</v>
+        <v>120.6592788752669</v>
       </c>
       <c r="Q36" t="n">
         <v>136.1300824528302</v>
@@ -10741,25 +10741,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>21.79628437712472</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>69.16996059133484</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>105.2836065989273</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>115.6742602693208</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>111.3378805152112</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>105.6509998050918</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>42.34223702878295</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>40.82141427723347</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>210.0462273461148</v>
       </c>
       <c r="L38" t="n">
-        <v>270.6444670286918</v>
+        <v>221.5445116161334</v>
       </c>
       <c r="M38" t="n">
         <v>291.2847697033555</v>
@@ -10838,7 +10838,7 @@
         <v>246.758517458259</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>98.35860935426459</v>
       </c>
       <c r="Q38" t="n">
         <v>137.5801139476182</v>
@@ -10896,10 +10896,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
         <v>131.9825104815849</v>
@@ -10923,7 +10923,7 @@
         <v>136.1300824528302</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10984,19 +10984,19 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>105.2836065989273</v>
+        <v>93.50685630730706</v>
       </c>
       <c r="M40" t="n">
-        <v>115.6742602693208</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>21.10242815879569</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L41" t="n">
         <v>270.6444670286918</v>
@@ -11072,13 +11072,13 @@
         <v>283.4008070189657</v>
       </c>
       <c r="O41" t="n">
-        <v>246.758517458259</v>
+        <v>210.1559461300632</v>
       </c>
       <c r="P41" t="n">
-        <v>46.62910674120463</v>
+        <v>80.09859037227284</v>
       </c>
       <c r="Q41" t="n">
-        <v>28.70292762395555</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>42.58424007769262</v>
@@ -11145,7 +11145,7 @@
         <v>120.3824293501764</v>
       </c>
       <c r="M42" t="n">
-        <v>116.626698625586</v>
+        <v>154.9336490012097</v>
       </c>
       <c r="N42" t="n">
         <v>101.9573524286611</v>
@@ -11215,28 +11215,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>21.79628437712472</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>69.16996059133484</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>105.2836065989273</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>115.6742602693208</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>111.3378805152112</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>105.6509998050918</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>109.5746066315038</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>73.10222942161559</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L44" t="n">
         <v>270.6444670286918</v>
@@ -11309,16 +11309,16 @@
         <v>283.4008070189657</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>211.7176625583327</v>
       </c>
       <c r="P44" t="n">
-        <v>208.5255628951208</v>
+        <v>186.7843923670614</v>
       </c>
       <c r="Q44" t="n">
-        <v>137.5801139476182</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>42.58424007769262</v>
+        <v>1.027783097004146</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,22 +11370,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>81.70699090058493</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>131.9825104815849</v>
       </c>
       <c r="L45" t="n">
-        <v>120.3824293501764</v>
+        <v>158.6893797258001</v>
       </c>
       <c r="M45" t="n">
         <v>116.626698625586</v>
       </c>
       <c r="N45" t="n">
-        <v>140.264302804285</v>
+        <v>101.9573524286611</v>
       </c>
       <c r="O45" t="n">
         <v>120.6530283274245</v>
@@ -11394,7 +11394,7 @@
         <v>120.6592788752669</v>
       </c>
       <c r="Q45" t="n">
-        <v>136.1300824528302</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11452,13 +11452,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M46" t="n">
         <v>115.6742602693208</v>
@@ -11467,13 +11467,13 @@
         <v>111.3378805152112</v>
       </c>
       <c r="O46" t="n">
-        <v>105.6509998050918</v>
+        <v>26.10064632679399</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>169.4344561747823</v>
+        <v>86.77179527768843</v>
       </c>
       <c r="C11" t="n">
-        <v>145.5527131781278</v>
+        <v>145.5527131781279</v>
       </c>
       <c r="D11" t="n">
-        <v>133.1193754391763</v>
+        <v>133.1193754391764</v>
       </c>
       <c r="E11" t="n">
         <v>166.8261278585852</v>
       </c>
       <c r="F11" t="n">
-        <v>198.5464654369625</v>
+        <v>198.5464654369626</v>
       </c>
       <c r="G11" t="n">
-        <v>144.5471655573695</v>
+        <v>214.1733032425596</v>
       </c>
       <c r="H11" t="n">
-        <v>142.2448436041343</v>
+        <v>59.58218270704037</v>
       </c>
       <c r="I11" t="n">
-        <v>35.89105811681798</v>
+        <v>35.89105811681807</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>22.58881163589409</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>17.76019284593454</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>45.4967904482358</v>
       </c>
       <c r="V11" t="n">
-        <v>33.56433850900703</v>
+        <v>116.2269994061011</v>
       </c>
       <c r="W11" t="n">
-        <v>133.2436796227159</v>
+        <v>60.43440790455564</v>
       </c>
       <c r="X11" t="n">
-        <v>155.1299300916551</v>
+        <v>72.46726919456123</v>
       </c>
       <c r="Y11" t="n">
-        <v>94.9701223183049</v>
+        <v>177.632783215399</v>
       </c>
     </row>
     <row r="12">
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.340816169499648</v>
+        <v>1.340816169499732</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>2.99526198919034</v>
+        <v>2.995261989190425</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>169.4344561747823</v>
+        <v>169.4344561747824</v>
       </c>
       <c r="C14" t="n">
-        <v>145.5527131781278</v>
+        <v>145.5527131781279</v>
       </c>
       <c r="D14" t="n">
-        <v>50.4567145420823</v>
+        <v>133.1193754391764</v>
       </c>
       <c r="E14" t="n">
-        <v>133.0910482902129</v>
+        <v>166.8261278585852</v>
       </c>
       <c r="F14" t="n">
-        <v>198.5464654369625</v>
+        <v>198.5464654369626</v>
       </c>
       <c r="G14" t="n">
-        <v>214.1733032425595</v>
+        <v>199.8439012771114</v>
       </c>
       <c r="H14" t="n">
-        <v>142.2448436041343</v>
+        <v>59.58218270704037</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>17.76019284593454</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>45.49679044823579</v>
       </c>
       <c r="V14" t="n">
-        <v>33.56433850900703</v>
+        <v>33.56433850900711</v>
       </c>
       <c r="W14" t="n">
-        <v>133.2436796227159</v>
+        <v>50.58101872562199</v>
       </c>
       <c r="X14" t="n">
-        <v>155.1299300916551</v>
+        <v>155.1299300916552</v>
       </c>
       <c r="Y14" t="n">
-        <v>177.6327832153989</v>
+        <v>177.632783215399</v>
       </c>
     </row>
     <row r="15">
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.340816169499648</v>
+        <v>1.340816169499734</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>2.99526198919034</v>
+        <v>2.995261989190425</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -26335,25 +26335,25 @@
         <v>132557.7823287804</v>
       </c>
       <c r="J2" t="n">
-        <v>132557.7823287803</v>
+        <v>132557.7823287802</v>
       </c>
       <c r="K2" t="n">
         <v>132557.7823287803</v>
       </c>
       <c r="L2" t="n">
-        <v>132557.7823287803</v>
+        <v>132557.7823287802</v>
       </c>
       <c r="M2" t="n">
         <v>132557.7823287804</v>
       </c>
       <c r="N2" t="n">
-        <v>132557.7823287803</v>
+        <v>132557.7823287804</v>
       </c>
       <c r="O2" t="n">
-        <v>132557.7823287804</v>
+        <v>132557.7823287805</v>
       </c>
       <c r="P2" t="n">
-        <v>132557.7823287804</v>
+        <v>132557.7823287805</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>272100.1210438668</v>
+        <v>272100.1210438667</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>105208.5138763724</v>
+        <v>105208.5138763726</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>161490.7661438376</v>
+        <v>161490.7661438377</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>105208.5138763724</v>
+        <v>105208.5138763726</v>
       </c>
       <c r="M3" t="n">
-        <v>18266.6854681785</v>
+        <v>18266.68546817848</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>65067.86905818323</v>
+        <v>65067.86905818319</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26439,7 +26439,7 @@
         <v>468402.5158330766</v>
       </c>
       <c r="J4" t="n">
-        <v>471274.3445339244</v>
+        <v>471274.3445339245</v>
       </c>
       <c r="K4" t="n">
         <v>471274.3445339245</v>
@@ -26448,7 +26448,7 @@
         <v>471274.3445339245</v>
       </c>
       <c r="M4" t="n">
-        <v>470303.7233314326</v>
+        <v>470303.7233314325</v>
       </c>
       <c r="N4" t="n">
         <v>470303.7233314326</v>
@@ -26482,34 +26482,34 @@
         <v>24501.91760808066</v>
       </c>
       <c r="G5" t="n">
-        <v>35557.88579942161</v>
+        <v>35557.88579942162</v>
       </c>
       <c r="H5" t="n">
         <v>35557.88579942161</v>
       </c>
       <c r="I5" t="n">
-        <v>35557.88579942162</v>
+        <v>35557.88579942161</v>
       </c>
       <c r="J5" t="n">
-        <v>47597.11518397224</v>
+        <v>47597.11518397227</v>
       </c>
       <c r="K5" t="n">
         <v>47597.11518397227</v>
       </c>
       <c r="L5" t="n">
-        <v>47597.11518397226</v>
+        <v>47597.11518397227</v>
       </c>
       <c r="M5" t="n">
-        <v>44490.80287720932</v>
+        <v>44490.80287720933</v>
       </c>
       <c r="N5" t="n">
         <v>44490.80287720932</v>
       </c>
       <c r="O5" t="n">
-        <v>44490.80287720932</v>
+        <v>44490.80287720933</v>
       </c>
       <c r="P5" t="n">
-        <v>44490.80287720932</v>
+        <v>44490.80287720933</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-404715.5464604109</v>
+        <v>-404720.0128446161</v>
       </c>
       <c r="C6" t="n">
-        <v>-404715.5464604109</v>
+        <v>-404720.0128446161</v>
       </c>
       <c r="D6" t="n">
-        <v>-404715.5464604109</v>
+        <v>-404720.0128446161</v>
       </c>
       <c r="E6" t="n">
-        <v>-581094.1980291703</v>
+        <v>-581403.5191787652</v>
       </c>
       <c r="F6" t="n">
-        <v>-308994.0769853034</v>
+        <v>-309303.3981348985</v>
       </c>
       <c r="G6" t="n">
-        <v>-476611.1331800902</v>
+        <v>-476611.1331800903</v>
       </c>
       <c r="H6" t="n">
         <v>-371402.6193037177</v>
       </c>
       <c r="I6" t="n">
-        <v>-371402.6193037178</v>
+        <v>-371402.6193037177</v>
       </c>
       <c r="J6" t="n">
-        <v>-547804.4435329541</v>
+        <v>-547804.4435329542</v>
       </c>
       <c r="K6" t="n">
         <v>-386313.6773891165</v>
       </c>
       <c r="L6" t="n">
-        <v>-491522.1912654889</v>
+        <v>-491522.1912654891</v>
       </c>
       <c r="M6" t="n">
-        <v>-400503.42934804</v>
+        <v>-400503.4293480399</v>
       </c>
       <c r="N6" t="n">
         <v>-382236.7438798615</v>
       </c>
       <c r="O6" t="n">
-        <v>-447304.6129380447</v>
+        <v>-447304.6129380446</v>
       </c>
       <c r="P6" t="n">
-        <v>-382236.7438798615</v>
+        <v>-382236.7438798614</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="F2" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="G2" t="n">
         <v>336.1634265485166</v>
@@ -26710,10 +26710,10 @@
         <v>212.8454786681946</v>
       </c>
       <c r="K2" t="n">
+        <v>212.8454786681945</v>
+      </c>
+      <c r="L2" t="n">
         <v>212.8454786681946</v>
-      </c>
-      <c r="L2" t="n">
-        <v>212.8454786681945</v>
       </c>
       <c r="M2" t="n">
         <v>235.6788355034177</v>
@@ -26808,28 +26808,28 @@
         <v>82.66266089709399</v>
       </c>
       <c r="I4" t="n">
-        <v>82.66266089709411</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="J4" t="n">
-        <v>451.1897323592885</v>
+        <v>451.1897323592889</v>
       </c>
       <c r="K4" t="n">
-        <v>451.1897323592888</v>
+        <v>451.1897323592889</v>
       </c>
       <c r="L4" t="n">
-        <v>451.1897323592888</v>
+        <v>451.1897323592889</v>
       </c>
       <c r="M4" t="n">
-        <v>368.5270714621948</v>
+        <v>368.5270714621949</v>
       </c>
       <c r="N4" t="n">
-        <v>368.5270714621948</v>
+        <v>368.5270714621949</v>
       </c>
       <c r="O4" t="n">
-        <v>368.5270714621948</v>
+        <v>368.5270714621949</v>
       </c>
       <c r="P4" t="n">
-        <v>368.5270714621948</v>
+        <v>368.5270714621949</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>131.5106423454656</v>
+        <v>131.5106423454657</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.33483632272905</v>
+        <v>81.33483632272893</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>131.5106423454655</v>
+        <v>131.5106423454657</v>
       </c>
       <c r="M2" t="n">
-        <v>22.83335683522313</v>
+        <v>22.8333568352231</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.33483632272905</v>
+        <v>81.33483632272899</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>368.5270714621944</v>
+        <v>368.5270714621949</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>131.5106423454656</v>
+        <v>131.5106423454657</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.33483632272905</v>
+        <v>81.33483632272893</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="C11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="D11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="E11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="F11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="G11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="H11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="I11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="J11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="K11" t="n">
-        <v>7.27654888869511</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="L11" t="n">
-        <v>204.652784203051</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>204.652784203051</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13.35405989412966</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="Q11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="R11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="S11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="T11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="U11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="V11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="W11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="X11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
     </row>
     <row r="12">
@@ -28169,31 +28169,31 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>201.6808036471823</v>
       </c>
       <c r="D12" t="n">
-        <v>204.652784203051</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>204.652784203051</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>204.652784203051</v>
+        <v>148.7381381529399</v>
       </c>
       <c r="H12" t="n">
-        <v>125.6730735315877</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="I12" t="n">
-        <v>113.7022601750334</v>
+        <v>196.3649210721274</v>
       </c>
       <c r="J12" t="n">
-        <v>133.5712356903773</v>
+        <v>51.86424478979235</v>
       </c>
       <c r="K12" t="n">
-        <v>131.9825104815849</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -28202,40 +28202,40 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>101.9573524286611</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>120.6530283274245</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.044035583042497</v>
+        <v>142.1741180358727</v>
       </c>
       <c r="R12" t="n">
-        <v>192.3969270926931</v>
+        <v>163.8163636610262</v>
       </c>
       <c r="S12" t="n">
         <v>191.4706822307765</v>
       </c>
       <c r="T12" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="U12" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="V12" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="W12" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="X12" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="Y12" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
     </row>
     <row r="13">
@@ -28257,10 +28257,10 @@
         <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>204.652784203051</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>204.652784203051</v>
+        <v>168.695353780268</v>
       </c>
       <c r="H13" t="n">
         <v>165.7761987305484</v>
@@ -28269,52 +28269,52 @@
         <v>164.6899393962033</v>
       </c>
       <c r="J13" t="n">
-        <v>141.6526168753024</v>
+        <v>202.5189933952717</v>
       </c>
       <c r="K13" t="n">
-        <v>135.5701020288577</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="L13" t="n">
-        <v>204.652784203051</v>
+        <v>136.6294461548476</v>
       </c>
       <c r="M13" t="n">
-        <v>24.36707598317782</v>
+        <v>81.74650401726855</v>
       </c>
       <c r="N13" t="n">
-        <v>15.6905740464987</v>
+        <v>170.1465917713617</v>
       </c>
       <c r="O13" t="n">
-        <v>204.652784203051</v>
+        <v>119.3752904243293</v>
       </c>
       <c r="P13" t="n">
-        <v>145.307188853649</v>
+        <v>57.82293582615036</v>
       </c>
       <c r="Q13" t="n">
-        <v>204.652784203051</v>
+        <v>126.7630388368461</v>
       </c>
       <c r="R13" t="n">
-        <v>204.652784203051</v>
+        <v>203.1862066784475</v>
       </c>
       <c r="S13" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="T13" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="U13" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="V13" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="W13" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="X13" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="Y13" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="C14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="D14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="E14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="F14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="G14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="H14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="I14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="J14" t="n">
-        <v>75.75587581289103</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="K14" t="n">
-        <v>204.652784203051</v>
+        <v>5.189869058379877</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="M14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>204.652784203051</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>13.35405989412966</v>
+        <v>77.82654748407576</v>
       </c>
       <c r="Q14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="R14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="S14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="T14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="U14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="V14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="W14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="X14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
     </row>
     <row r="15">
@@ -28406,37 +28406,37 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="D15" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="E15" t="n">
-        <v>204.652784203051</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>204.652784203051</v>
+        <v>193.0336503346813</v>
       </c>
       <c r="G15" t="n">
         <v>148.7381381529399</v>
       </c>
       <c r="H15" t="n">
-        <v>125.6730735315877</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="I15" t="n">
-        <v>113.7022601750334</v>
+        <v>107.1407760227504</v>
       </c>
       <c r="J15" t="n">
-        <v>185.2412328089039</v>
+        <v>133.5712356903773</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>131.9825104815849</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>116.626698625586</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -28448,31 +28448,31 @@
         <v>120.6592788752669</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.044035583042497</v>
+        <v>142.1741180358727</v>
       </c>
       <c r="R15" t="n">
-        <v>163.8163636610262</v>
+        <v>134.3183216232903</v>
       </c>
       <c r="S15" t="n">
         <v>191.4706822307765</v>
       </c>
       <c r="T15" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="U15" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="V15" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="W15" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="X15" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="Y15" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
     </row>
     <row r="16">
@@ -28482,19 +28482,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="D16" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="E16" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="F16" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="G16" t="n">
         <v>168.695353780268</v>
@@ -28503,55 +28503,55 @@
         <v>165.7761987305484</v>
       </c>
       <c r="I16" t="n">
-        <v>164.6899393962033</v>
+        <v>202.3919136002053</v>
       </c>
       <c r="J16" t="n">
-        <v>141.6526168753024</v>
+        <v>119.8563324981777</v>
       </c>
       <c r="K16" t="n">
-        <v>204.652784203051</v>
+        <v>66.40014143752288</v>
       </c>
       <c r="L16" t="n">
-        <v>136.6294461548476</v>
+        <v>31.34583955592038</v>
       </c>
       <c r="M16" t="n">
-        <v>140.0413362524986</v>
+        <v>24.36707598317782</v>
       </c>
       <c r="N16" t="n">
-        <v>127.0284545617099</v>
+        <v>15.6905740464987</v>
       </c>
       <c r="O16" t="n">
-        <v>142.3636293323272</v>
+        <v>36.71262952723532</v>
       </c>
       <c r="P16" t="n">
-        <v>87.70677130114288</v>
+        <v>57.82293582615036</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.105275865629</v>
+        <v>126.7630388368461</v>
       </c>
       <c r="R16" t="n">
-        <v>204.652784203051</v>
+        <v>203.1862066784475</v>
       </c>
       <c r="S16" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="T16" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="U16" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="V16" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="W16" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="X16" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="Y16" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
     </row>
     <row r="17">
@@ -28591,34 +28591,34 @@
         <v>215.2360964044946</v>
       </c>
       <c r="L17" t="n">
-        <v>221.5445116161334</v>
+        <v>304.2071725132274</v>
       </c>
       <c r="M17" t="n">
         <v>207.4839727133473</v>
       </c>
       <c r="N17" t="n">
-        <v>205.155577054941</v>
+        <v>269.1946895218787</v>
       </c>
       <c r="O17" t="n">
-        <v>274.1950585970009</v>
+        <v>210.1559461300632</v>
       </c>
       <c r="P17" t="n">
         <v>221.8796227892504</v>
       </c>
       <c r="Q17" t="n">
-        <v>225.9867511070041</v>
+        <v>308.6494120040981</v>
       </c>
       <c r="R17" t="n">
         <v>236.7066186004219</v>
       </c>
       <c r="S17" t="n">
-        <v>309.904256736039</v>
+        <v>227.241595838945</v>
       </c>
       <c r="T17" t="n">
         <v>305.0756379460794</v>
       </c>
       <c r="U17" t="n">
-        <v>332.8122355483807</v>
+        <v>250.1495746512867</v>
       </c>
       <c r="V17" t="n">
         <v>336.1634265485166</v>
@@ -28819,7 +28819,7 @@
         <v>336.1634265485166</v>
       </c>
       <c r="I20" t="n">
-        <v>240.543842319869</v>
+        <v>323.206503216963</v>
       </c>
       <c r="J20" t="n">
         <v>185.3304824443948</v>
@@ -28843,13 +28843,13 @@
         <v>221.8796227892504</v>
       </c>
       <c r="Q20" t="n">
-        <v>290.0258635739418</v>
+        <v>225.9867511070041</v>
       </c>
       <c r="R20" t="n">
         <v>236.7066186004219</v>
       </c>
       <c r="S20" t="n">
-        <v>309.904256736039</v>
+        <v>291.2807083058827</v>
       </c>
       <c r="T20" t="n">
         <v>305.0756379460794</v>
@@ -29056,7 +29056,7 @@
         <v>336.1634265485166</v>
       </c>
       <c r="I23" t="n">
-        <v>323.2065032169631</v>
+        <v>323.206503216963</v>
       </c>
       <c r="J23" t="n">
         <v>185.3304824443948</v>
@@ -29083,16 +29083,16 @@
         <v>225.9867511070041</v>
       </c>
       <c r="R23" t="n">
-        <v>319.369279497516</v>
+        <v>319.3692794975159</v>
       </c>
       <c r="S23" t="n">
-        <v>227.241595838945</v>
+        <v>291.2807083058827</v>
       </c>
       <c r="T23" t="n">
-        <v>286.4520895159233</v>
+        <v>305.0756379460794</v>
       </c>
       <c r="U23" t="n">
-        <v>332.8122355483808</v>
+        <v>250.1495746512867</v>
       </c>
       <c r="V23" t="n">
         <v>336.1634265485166</v>
@@ -29317,7 +29317,7 @@
         <v>212.8454786681946</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.8454786681929</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="R26" t="n">
         <v>212.8454786681946</v>
@@ -29369,7 +29369,7 @@
         <v>148.7381381529399</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>125.6730735315877</v>
       </c>
       <c r="I27" t="n">
         <v>107.1407760227504</v>
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.044035583042497</v>
       </c>
       <c r="R27" t="n">
         <v>134.3183216232903</v>
@@ -29405,22 +29405,22 @@
         <v>191.4706822307765</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="U27" t="n">
-        <v>212.8454786681946</v>
+        <v>141.9810662866874</v>
       </c>
       <c r="V27" t="n">
-        <v>212.8454786681946</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>212.8454786681946</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>212.8454786681946</v>
       </c>
       <c r="Y27" t="n">
-        <v>60.85269673312551</v>
+        <v>212.8454786681946</v>
       </c>
     </row>
     <row r="28">
@@ -29430,7 +29430,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>177.6169206649681</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="C28" t="n">
         <v>166.4571809719723</v>
@@ -29445,22 +29445,22 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.695353780268</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="H28" t="n">
-        <v>165.7761987305484</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="I28" t="n">
-        <v>164.6899393962033</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="J28" t="n">
-        <v>119.8563324981777</v>
+        <v>182.2697929701754</v>
       </c>
       <c r="K28" t="n">
         <v>66.40014143752288</v>
       </c>
       <c r="L28" t="n">
-        <v>92.22995298774899</v>
+        <v>31.34583955592038</v>
       </c>
       <c r="M28" t="n">
         <v>24.36707598317782</v>
@@ -29469,7 +29469,7 @@
         <v>15.6905740464987</v>
       </c>
       <c r="O28" t="n">
-        <v>212.8454786681946</v>
+        <v>36.71262952723532</v>
       </c>
       <c r="P28" t="n">
         <v>57.82293582615036</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="C29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="D29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="E29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="F29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="G29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="H29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="I29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="J29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="K29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="L29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="M29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="N29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="O29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="P29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.845478668194</v>
+        <v>212.8454786681951</v>
       </c>
       <c r="R29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="S29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="T29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="U29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="V29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="W29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="X29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="Y29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
     </row>
     <row r="30">
@@ -29612,7 +29612,7 @@
         <v>107.1407760227504</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>51.86424478979235</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,31 +29633,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.044035583042497</v>
       </c>
       <c r="R30" t="n">
         <v>134.3183216232903</v>
       </c>
       <c r="S30" t="n">
-        <v>191.4706822307765</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>199.8893466595246</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="V30" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="W30" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>120.6062698492628</v>
       </c>
     </row>
     <row r="31">
@@ -29700,16 +29700,16 @@
         <v>31.34583955592038</v>
       </c>
       <c r="M31" t="n">
-        <v>212.8454786681946</v>
+        <v>24.36707598317782</v>
       </c>
       <c r="N31" t="n">
-        <v>64.2291339342698</v>
+        <v>15.6905740464987</v>
       </c>
       <c r="O31" t="n">
-        <v>36.71262952723532</v>
+        <v>118.7070492579795</v>
       </c>
       <c r="P31" t="n">
-        <v>57.82293582615036</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="Q31" t="n">
         <v>126.7630388368461</v>
@@ -29718,25 +29718,25 @@
         <v>203.1862066784475</v>
       </c>
       <c r="S31" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="T31" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="U31" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="V31" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="W31" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="X31" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="Y31" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="C32" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="D32" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="E32" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="F32" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="G32" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="H32" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="I32" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="J32" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="K32" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="L32" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="M32" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="N32" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="O32" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="P32" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="R32" t="n">
         <v>212.8454786681945</v>
       </c>
       <c r="S32" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="T32" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="U32" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="V32" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="W32" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="X32" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
     </row>
     <row r="33">
@@ -29825,16 +29825,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>70.91221077080394</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.044035583042497</v>
       </c>
       <c r="R33" t="n">
         <v>134.3183216232903</v>
@@ -29879,22 +29879,22 @@
         <v>191.4706822307765</v>
       </c>
       <c r="T33" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="U33" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="V33" t="n">
-        <v>212.8454786681945</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>212.8454786681945</v>
+        <v>116.6537391428583</v>
       </c>
       <c r="X33" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>212.8454786681946</v>
       </c>
     </row>
     <row r="34">
@@ -29925,7 +29925,7 @@
         <v>165.7761987305484</v>
       </c>
       <c r="I34" t="n">
-        <v>164.6899393962033</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="J34" t="n">
         <v>119.8563324981777</v>
@@ -29940,40 +29940,40 @@
         <v>24.36707598317782</v>
       </c>
       <c r="N34" t="n">
-        <v>15.6905740464987</v>
+        <v>118.469557515947</v>
       </c>
       <c r="O34" t="n">
-        <v>212.8454786681945</v>
+        <v>36.71262952723532</v>
       </c>
       <c r="P34" t="n">
-        <v>118.7070492579795</v>
+        <v>57.82293582615036</v>
       </c>
       <c r="Q34" t="n">
-        <v>126.7630388368461</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="R34" t="n">
         <v>203.1862066784475</v>
       </c>
       <c r="S34" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="T34" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="U34" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="V34" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="W34" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="X34" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="Y34" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
     </row>
     <row r="35">
@@ -30007,7 +30007,7 @@
         <v>235.6788355034177</v>
       </c>
       <c r="J35" t="n">
-        <v>182.3893648288703</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="K35" t="n">
         <v>235.6788355034177</v>
@@ -30019,10 +30019,10 @@
         <v>235.6788355034177</v>
       </c>
       <c r="N35" t="n">
-        <v>235.6788355034177</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>235.6788355034177</v>
+        <v>233.5181755824165</v>
       </c>
       <c r="P35" t="n">
         <v>235.6788355034177</v>
@@ -30034,10 +30034,10 @@
         <v>235.6788355034177</v>
       </c>
       <c r="S35" t="n">
-        <v>235.6788355034177</v>
+        <v>227.241595838945</v>
       </c>
       <c r="T35" t="n">
-        <v>235.6788355034177</v>
+        <v>222.4129770489855</v>
       </c>
       <c r="U35" t="n">
         <v>235.6788355034177</v>
@@ -30080,7 +30080,7 @@
         <v>148.7381381529399</v>
       </c>
       <c r="H36" t="n">
-        <v>125.6730735315877</v>
+        <v>133.3195534738721</v>
       </c>
       <c r="I36" t="n">
         <v>107.1407760227504</v>
@@ -30128,10 +30128,10 @@
         <v>235.6788355034177</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>235.6788355034177</v>
       </c>
     </row>
     <row r="37">
@@ -30159,31 +30159,31 @@
         <v>168.695353780268</v>
       </c>
       <c r="H37" t="n">
-        <v>214.2031551212188</v>
+        <v>165.7761987305484</v>
       </c>
       <c r="I37" t="n">
+        <v>164.6899393962033</v>
+      </c>
+      <c r="J37" t="n">
+        <v>141.6526168753024</v>
+      </c>
+      <c r="K37" t="n">
+        <v>135.5701020288577</v>
+      </c>
+      <c r="L37" t="n">
+        <v>136.6294461548476</v>
+      </c>
+      <c r="M37" t="n">
+        <v>140.0413362524986</v>
+      </c>
+      <c r="N37" t="n">
+        <v>127.0284545617099</v>
+      </c>
+      <c r="O37" t="n">
+        <v>171.407835180443</v>
+      </c>
+      <c r="P37" t="n">
         <v>235.6788355034177</v>
-      </c>
-      <c r="J37" t="n">
-        <v>119.8563324981777</v>
-      </c>
-      <c r="K37" t="n">
-        <v>66.40014143752288</v>
-      </c>
-      <c r="L37" t="n">
-        <v>31.34583955592038</v>
-      </c>
-      <c r="M37" t="n">
-        <v>24.36707598317782</v>
-      </c>
-      <c r="N37" t="n">
-        <v>15.6905740464987</v>
-      </c>
-      <c r="O37" t="n">
-        <v>36.71262952723532</v>
-      </c>
-      <c r="P37" t="n">
-        <v>57.82293582615036</v>
       </c>
       <c r="Q37" t="n">
         <v>126.7630388368461</v>
@@ -30250,7 +30250,7 @@
         <v>235.6788355034177</v>
       </c>
       <c r="L38" t="n">
-        <v>235.6788355034177</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>235.6788355034177</v>
@@ -30259,7 +30259,7 @@
         <v>235.6788355034177</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="P38" t="n">
         <v>235.6788355034177</v>
@@ -30271,7 +30271,7 @@
         <v>235.6788355034177</v>
       </c>
       <c r="S38" t="n">
-        <v>235.6788355034177</v>
+        <v>227.241595838945</v>
       </c>
       <c r="T38" t="n">
         <v>235.6788355034177</v>
@@ -30308,10 +30308,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>210.1345222154235</v>
       </c>
       <c r="F39" t="n">
-        <v>197.1303894955522</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>148.7381381529399</v>
@@ -30320,10 +30320,10 @@
         <v>125.6730735315877</v>
       </c>
       <c r="I39" t="n">
-        <v>113.7022601750334</v>
+        <v>107.1407760227504</v>
       </c>
       <c r="J39" t="n">
-        <v>133.5712356903773</v>
+        <v>51.86424478979235</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>6.044035583042497</v>
       </c>
       <c r="R39" t="n">
-        <v>163.8163636610262</v>
+        <v>134.3183216232903</v>
       </c>
       <c r="S39" t="n">
         <v>191.4706822307765</v>
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3780496712</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="C40" t="n">
-        <v>235.6788355034177</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
         <v>145.1826502507107</v>
@@ -30396,7 +30396,7 @@
         <v>168.695353780268</v>
       </c>
       <c r="H40" t="n">
-        <v>165.7761987305484</v>
+        <v>227.1301363899836</v>
       </c>
       <c r="I40" t="n">
         <v>164.6899393962033</v>
@@ -30408,31 +30408,31 @@
         <v>135.5701020288577</v>
       </c>
       <c r="L40" t="n">
-        <v>31.34583955592038</v>
+        <v>43.12258984754059</v>
       </c>
       <c r="M40" t="n">
-        <v>24.36707598317782</v>
+        <v>140.0413362524986</v>
       </c>
       <c r="N40" t="n">
-        <v>105.9260264029142</v>
+        <v>127.0284545617099</v>
       </c>
       <c r="O40" t="n">
         <v>142.3636293323272</v>
       </c>
       <c r="P40" t="n">
-        <v>57.82293582615036</v>
+        <v>145.307188853649</v>
       </c>
       <c r="Q40" t="n">
         <v>169.105275865629</v>
       </c>
       <c r="R40" t="n">
-        <v>235.6788355034177</v>
+        <v>203.1862066784475</v>
       </c>
       <c r="S40" t="n">
         <v>235.3435685609305</v>
       </c>
       <c r="T40" t="n">
-        <v>235.6788355034177</v>
+        <v>223.7383953681803</v>
       </c>
       <c r="U40" t="n">
         <v>235.6788355034177</v>
@@ -30490,16 +30490,16 @@
         <v>235.6788355034177</v>
       </c>
       <c r="M41" t="n">
-        <v>235.6788355034177</v>
+        <v>219.4532810719998</v>
       </c>
       <c r="N41" t="n">
         <v>235.6788355034177</v>
       </c>
       <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
         <v>235.6788355034177</v>
-      </c>
-      <c r="P41" t="n">
-        <v>175.2505160480458</v>
       </c>
       <c r="Q41" t="n">
         <v>235.6788355034177</v>
@@ -30511,7 +30511,7 @@
         <v>235.6788355034177</v>
       </c>
       <c r="T41" t="n">
-        <v>222.4129770489855</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="U41" t="n">
         <v>235.6788355034177</v>
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>184.3969743399503</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
@@ -30602,10 +30602,10 @@
         <v>235.6788355034177</v>
       </c>
       <c r="X42" t="n">
-        <v>235.6788355034177</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>235.6788355034177</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>177.6169206649681</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="C43" t="n">
         <v>166.4571809719723</v>
@@ -30630,7 +30630,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.695353780268</v>
+        <v>197.5566626147327</v>
       </c>
       <c r="H43" t="n">
         <v>165.7761987305484</v>
@@ -30639,31 +30639,31 @@
         <v>164.6899393962033</v>
       </c>
       <c r="J43" t="n">
-        <v>119.8563324981777</v>
+        <v>141.6526168753024</v>
       </c>
       <c r="K43" t="n">
-        <v>66.40014143752288</v>
+        <v>135.5701020288577</v>
       </c>
       <c r="L43" t="n">
-        <v>31.34583955592038</v>
+        <v>136.6294461548476</v>
       </c>
       <c r="M43" t="n">
-        <v>24.36707598317782</v>
+        <v>140.0413362524986</v>
       </c>
       <c r="N43" t="n">
-        <v>15.6905740464987</v>
+        <v>127.0284545617099</v>
       </c>
       <c r="O43" t="n">
-        <v>36.71262952723532</v>
+        <v>142.3636293323272</v>
       </c>
       <c r="P43" t="n">
-        <v>57.82293582615036</v>
+        <v>145.307188853649</v>
       </c>
       <c r="Q43" t="n">
+        <v>169.105275865629</v>
+      </c>
+      <c r="R43" t="n">
         <v>235.6788355034177</v>
-      </c>
-      <c r="R43" t="n">
-        <v>213.6862625097605</v>
       </c>
       <c r="S43" t="n">
         <v>235.3435685609305</v>
@@ -30736,7 +30736,7 @@
         <v>235.6788355034177</v>
       </c>
       <c r="P44" t="n">
-        <v>64.8673031526787</v>
+        <v>35.09523042218902</v>
       </c>
       <c r="Q44" t="n">
         <v>235.6788355034177</v>
@@ -30745,7 +30745,7 @@
         <v>235.6788355034177</v>
       </c>
       <c r="S44" t="n">
-        <v>235.6788355034177</v>
+        <v>227.241595838945</v>
       </c>
       <c r="T44" t="n">
         <v>235.6788355034177</v>
@@ -30794,10 +30794,10 @@
         <v>125.6730735315877</v>
       </c>
       <c r="I45" t="n">
-        <v>113.7022601750334</v>
+        <v>107.1407760227504</v>
       </c>
       <c r="J45" t="n">
-        <v>51.86424478979235</v>
+        <v>133.5712356903773</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,7 +30818,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.044035583042497</v>
+        <v>142.1741180358727</v>
       </c>
       <c r="R45" t="n">
         <v>163.8163636610262</v>
@@ -30876,13 +30876,13 @@
         <v>164.6899393962033</v>
       </c>
       <c r="J46" t="n">
-        <v>141.6526168753024</v>
+        <v>119.8563324981777</v>
       </c>
       <c r="K46" t="n">
-        <v>135.5701020288577</v>
+        <v>66.40014143752288</v>
       </c>
       <c r="L46" t="n">
-        <v>165.6736520029637</v>
+        <v>31.34583955592038</v>
       </c>
       <c r="M46" t="n">
         <v>24.36707598317782</v>
@@ -30891,13 +30891,13 @@
         <v>15.6905740464987</v>
       </c>
       <c r="O46" t="n">
-        <v>36.71262952723532</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="P46" t="n">
-        <v>235.6788355034177</v>
+        <v>57.82293582615036</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.105275865629</v>
+        <v>126.7630388368461</v>
       </c>
       <c r="R46" t="n">
         <v>203.1862066784475</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>47.1376150111757</v>
+        <v>19.69239431342222</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="L11" t="n">
+        <v>49.09995541255842</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
         <v>82.66266089709399</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>82.66266089709399</v>
       </c>
-      <c r="N11" t="n">
-        <v>78.24522996402476</v>
-      </c>
-      <c r="O11" t="n">
-        <v>36.60257132819582</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>10.53040568032165</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35465,25 +35465,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>14.16265212281635</v>
       </c>
       <c r="D12" t="n">
-        <v>45.48046912647246</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>45.82934508312266</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>55.91464605011105</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>78.97971067146325</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>28.5805634316669</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35553,10 +35553,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>65.72590198460435</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>35.95743042278299</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -35565,31 +35565,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>43.11813720965176</v>
+      </c>
+      <c r="O13" t="n">
         <v>82.66266089709399</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>62.28915487072383</v>
-      </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>43.00439420112453</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.466577524603537</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>82.66266089709399</v>
-      </c>
-      <c r="L14" t="n">
-        <v>49.09995541255842</v>
       </c>
       <c r="M14" t="n">
         <v>82.66266089709399</v>
@@ -35659,13 +35659,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>82.66266089709399</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>30.22279999374389</v>
+        <v>79.32275540630231</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35702,28 +35702,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>17.13463267868499</v>
       </c>
       <c r="D15" t="n">
-        <v>45.48046912647246</v>
+        <v>45.48046912647237</v>
       </c>
       <c r="E15" t="n">
-        <v>32.82521236325132</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>45.82934508312266</v>
+        <v>34.21021121475297</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>78.97971067146325</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>51.66999711852663</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35778,19 +35778,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>27.03586353808291</v>
+        <v>27.03586353808282</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>38.19560323107856</v>
       </c>
       <c r="D16" t="n">
-        <v>59.47013395234029</v>
+        <v>59.47013395234021</v>
       </c>
       <c r="E16" t="n">
-        <v>62.97664299082601</v>
+        <v>62.97664299082592</v>
       </c>
       <c r="F16" t="n">
-        <v>65.72590198460435</v>
+        <v>65.72590198460426</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -35799,13 +35799,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>37.70197420400193</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>74.43099991047615</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -35826,7 +35826,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.466577524603537</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35887,37 +35887,37 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>64.03911246693769</v>
       </c>
       <c r="O17" t="n">
-        <v>64.03911246693777</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.66266089709399</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>82.66266089709399</v>
       </c>
       <c r="U17" t="n">
-        <v>82.66266089709399</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>15.28364293936454</v>
+        <v>15.2836429393646</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36139,13 +36139,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>64.03911246693777</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.66266089709399</v>
+        <v>64.03911246693775</v>
       </c>
       <c r="T20" t="n">
         <v>82.66266089709399</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>82.66266089709411</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36379,16 +36379,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>82.66266089709411</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>64.03911246693775</v>
       </c>
       <c r="T23" t="n">
-        <v>64.03911246693787</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="U23" t="n">
-        <v>82.66266089709411</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>15.28364293936454</v>
@@ -36604,19 +36604,19 @@
         <v>296.6462756582027</v>
       </c>
       <c r="N26" t="n">
-        <v>291.0907086322194</v>
+        <v>291.0907086322193</v>
       </c>
       <c r="O26" t="n">
         <v>249.4480499963904</v>
       </c>
       <c r="P26" t="n">
-        <v>199.491418774065</v>
+        <v>199.4914187740649</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.438841508807</v>
+        <v>124.4388415088087</v>
       </c>
       <c r="R26" t="n">
-        <v>18.72310014546534</v>
+        <v>18.72310014546531</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,16 +36680,16 @@
         <v>119.9221144064652</v>
       </c>
       <c r="M27" t="n">
-        <v>185.150182684414</v>
+        <v>44.04430925390454</v>
       </c>
       <c r="N27" t="n">
         <v>208.6565061459615</v>
       </c>
       <c r="O27" t="n">
-        <v>79.16847633679667</v>
+        <v>134.5697545638963</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>85.70459520341234</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36726,7 +36726,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>35.22855800322648</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -36741,22 +36741,22 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>44.15012488792657</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>47.06927993764618</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>48.15553927199125</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>62.41346047199763</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>60.8841134318286</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -36765,7 +36765,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>176.1328491409593</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0896028553036</v>
+        <v>137.0896028553035</v>
       </c>
       <c r="K29" t="n">
         <v>207.6556096098147</v>
@@ -36841,19 +36841,19 @@
         <v>296.6462756582027</v>
       </c>
       <c r="N29" t="n">
-        <v>291.0907086322194</v>
+        <v>291.0907086322193</v>
       </c>
       <c r="O29" t="n">
         <v>249.4480499963904</v>
       </c>
       <c r="P29" t="n">
-        <v>199.491418774065</v>
+        <v>199.4914187740649</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.4388415088082</v>
+        <v>124.4388415088093</v>
       </c>
       <c r="R29" t="n">
-        <v>18.72310014546534</v>
+        <v>18.72310014546528</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36923,7 +36923,7 @@
         <v>208.6565061459615</v>
       </c>
       <c r="O30" t="n">
-        <v>79.16847633679679</v>
+        <v>79.16847633680598</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36996,16 +36996,16 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>188.4784026850168</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>48.5385598877711</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>81.99441973074414</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>155.0225428420442</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0896028553035</v>
+        <v>137.0896028553036</v>
       </c>
       <c r="K32" t="n">
         <v>207.6556096098147</v>
@@ -37090,7 +37090,7 @@
         <v>124.4388415088087</v>
       </c>
       <c r="R32" t="n">
-        <v>18.72310014546528</v>
+        <v>18.72310014546523</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,13 +37157,13 @@
         <v>185.150182684414</v>
       </c>
       <c r="N33" t="n">
-        <v>67.55063271545481</v>
+        <v>208.6565061459615</v>
       </c>
       <c r="O33" t="n">
-        <v>134.5697545638963</v>
+        <v>79.16847633679966</v>
       </c>
       <c r="P33" t="n">
-        <v>85.70459520341234</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37221,7 +37221,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>48.15553927199125</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -37236,16 +37236,16 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>102.7789834694483</v>
       </c>
       <c r="O34" t="n">
-        <v>176.1328491409592</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>60.8841134318291</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.08243983134851</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,37 +37303,37 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>103.7701137420917</v>
+        <v>159.9229596905267</v>
       </c>
       <c r="K35" t="n">
-        <v>20.44273909892303</v>
+        <v>20.44273909892309</v>
       </c>
       <c r="L35" t="n">
-        <v>284.7787909159761</v>
+        <v>284.7787909159762</v>
       </c>
       <c r="M35" t="n">
-        <v>319.4796324934258</v>
+        <v>312.7996356133916</v>
       </c>
       <c r="N35" t="n">
-        <v>313.9240654674425</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>25.52288937335452</v>
+        <v>270.1207469106124</v>
       </c>
       <c r="P35" t="n">
-        <v>222.324775609288</v>
+        <v>222.3247756092881</v>
       </c>
       <c r="Q35" t="n">
-        <v>147.2721983440318</v>
+        <v>147.2721983440319</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>41.55645698068847</v>
       </c>
       <c r="S35" t="n">
-        <v>8.437239664472667</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>13.26585845443222</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37376,7 +37376,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>7.646479942284466</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>38.30695037562388</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37424,10 +37424,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>18.36592106394713</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>12.29454936939212</v>
       </c>
     </row>
     <row r="37">
@@ -37455,10 +37455,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>48.4269563906704</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>70.98889610721434</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -37476,10 +37476,10 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>29.04420584811581</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>90.37164664976875</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>91.1697673362563</v>
+        <v>50.34835305902283</v>
       </c>
       <c r="K38" t="n">
         <v>230.4889664450378</v>
       </c>
       <c r="L38" t="n">
-        <v>284.7787909159761</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>319.4796324934258</v>
@@ -37555,10 +37555,10 @@
         <v>313.9240654674425</v>
       </c>
       <c r="O38" t="n">
-        <v>36.60257132819582</v>
+        <v>272.2814068316135</v>
       </c>
       <c r="P38" t="n">
-        <v>13.79921271416725</v>
+        <v>112.1578220684318</v>
       </c>
       <c r="Q38" t="n">
         <v>147.2721983440318</v>
@@ -37567,7 +37567,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>8.437239664472667</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>13.26585845443222</v>
@@ -37604,10 +37604,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>38.30695037562388</v>
       </c>
       <c r="F39" t="n">
-        <v>38.30695037562388</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -37674,10 +37674,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5.761129006231862</v>
+        <v>58.06191483844958</v>
       </c>
       <c r="C40" t="n">
-        <v>69.22165453144532</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -37692,7 +37692,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>61.35393765943515</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37722,13 +37722,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>32.49262882497021</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>11.94044013523735</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -37780,34 +37780,34 @@
         <v>159.9229596905267</v>
       </c>
       <c r="K41" t="n">
-        <v>20.44273909892306</v>
+        <v>230.4889664450378</v>
       </c>
       <c r="L41" t="n">
-        <v>284.7787909159761</v>
+        <v>284.7787909159762</v>
       </c>
       <c r="M41" t="n">
-        <v>319.4796324934259</v>
+        <v>303.2540780620079</v>
       </c>
       <c r="N41" t="n">
         <v>313.9240654674425</v>
       </c>
       <c r="O41" t="n">
-        <v>272.2814068316135</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>93.89780308644015</v>
       </c>
       <c r="Q41" t="n">
-        <v>38.39501202036918</v>
+        <v>9.692084396413662</v>
       </c>
       <c r="R41" t="n">
-        <v>41.55645698068844</v>
+        <v>41.55645698068847</v>
       </c>
       <c r="S41" t="n">
-        <v>8.437239664472695</v>
+        <v>8.437239664472724</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>13.26585845443227</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37832,7 +37832,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>7.646479942284609</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -37865,7 +37865,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>38.30695037562371</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37898,10 +37898,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>18.3659210639471</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>12.29454936939209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -37911,7 +37911,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>58.06191483844964</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -37926,7 +37926,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>28.86130883446467</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -37956,10 +37956,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>108.9157966665716</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.50005583131304</v>
+        <v>32.49262882497027</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>159.9229596905266</v>
+        <v>50.34835305902288</v>
       </c>
       <c r="K44" t="n">
-        <v>93.54496852053862</v>
+        <v>230.4889664450378</v>
       </c>
       <c r="L44" t="n">
-        <v>284.7787909159761</v>
+        <v>284.7787909159762</v>
       </c>
       <c r="M44" t="n">
-        <v>319.4796324934258</v>
+        <v>319.4796324934259</v>
       </c>
       <c r="N44" t="n">
         <v>313.9240654674425</v>
       </c>
       <c r="O44" t="n">
-        <v>25.52288937335452</v>
+        <v>237.2405519316873</v>
       </c>
       <c r="P44" t="n">
-        <v>51.51324325854905</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>147.2721983440318</v>
+        <v>9.692084396413662</v>
       </c>
       <c r="R44" t="n">
-        <v>41.55645698068841</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>8.437239664472667</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>13.26585845443222</v>
+        <v>13.26585845443227</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38099,13 +38099,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>38.30695037562371</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>38.30695037562388</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>29.04420584811605</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -38187,10 +38187,10 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>119.4158524978846</v>
       </c>
       <c r="P46" t="n">
-        <v>90.37164664976869</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
